--- a/data/pca/factorExposure/factorExposure_2011-05-04.xlsx
+++ b/data/pca/factorExposure/factorExposure_2011-05-04.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="114">
   <si>
     <t>factor1</t>
   </si>
@@ -35,6 +35,18 @@
   </si>
   <si>
     <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
+  </si>
+  <si>
+    <t>factor10</t>
+  </si>
+  <si>
+    <t>factor11</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -701,13 +713,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H104"/>
+  <dimension ref="A1:L104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:12">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -729,36 +741,60 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B2">
-        <v>0.005332960730719965</v>
+        <v>0.01236064332569735</v>
       </c>
       <c r="C2">
-        <v>0.005020186332719935</v>
+        <v>-0.004201860541999157</v>
       </c>
       <c r="D2">
-        <v>-0.04899197363961122</v>
+        <v>-0.02747390924022976</v>
       </c>
       <c r="E2">
-        <v>-0.002048849790413482</v>
+        <v>-0.01618081291131938</v>
       </c>
       <c r="F2">
-        <v>0.01222347291916711</v>
+        <v>0.002033454083453948</v>
       </c>
       <c r="G2">
-        <v>-0.03595797407137118</v>
+        <v>-0.01334836518141683</v>
       </c>
       <c r="H2">
-        <v>0.00663518094556999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>0.02243712171771986</v>
+      </c>
+      <c r="I2">
+        <v>-0.03339647427973855</v>
+      </c>
+      <c r="J2">
+        <v>0.02687916603669938</v>
+      </c>
+      <c r="K2">
+        <v>-0.03153857819778485</v>
+      </c>
+      <c r="L2">
+        <v>0.02138457436765597</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -781,36 +817,60 @@
       <c r="H3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B4">
-        <v>0.09011005207091848</v>
+        <v>0.1113842923548745</v>
       </c>
       <c r="C4">
-        <v>-0.04814443949237811</v>
+        <v>0.06732557149220836</v>
       </c>
       <c r="D4">
-        <v>-0.02861476034454497</v>
+        <v>-0.02359743768036068</v>
       </c>
       <c r="E4">
-        <v>0.03817340502132634</v>
+        <v>-0.0180664711065772</v>
       </c>
       <c r="F4">
-        <v>0.03608054242980414</v>
+        <v>0.155095866845147</v>
       </c>
       <c r="G4">
-        <v>-0.02530432233608604</v>
+        <v>0.01191891001802915</v>
       </c>
       <c r="H4">
-        <v>0.006417578406527429</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>0.01326819415320273</v>
+      </c>
+      <c r="I4">
+        <v>0.01885280440929445</v>
+      </c>
+      <c r="J4">
+        <v>-0.03059211627728606</v>
+      </c>
+      <c r="K4">
+        <v>0.09130776591793455</v>
+      </c>
+      <c r="L4">
+        <v>0.03450654372993417</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -833,296 +893,440 @@
       <c r="H5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B6">
-        <v>0.134126859231837</v>
+        <v>0.1337737242132117</v>
       </c>
       <c r="C6">
-        <v>-0.02854811124374308</v>
+        <v>0.04814319855461731</v>
       </c>
       <c r="D6">
-        <v>-0.05073653988369572</v>
+        <v>-0.0006859740712822206</v>
       </c>
       <c r="E6">
-        <v>0.05809306402359676</v>
+        <v>-0.001227543025165495</v>
       </c>
       <c r="F6">
-        <v>-0.1096434505603964</v>
+        <v>-0.0164074779814344</v>
       </c>
       <c r="G6">
-        <v>0.101363784734876</v>
+        <v>0.0675607695653713</v>
       </c>
       <c r="H6">
-        <v>-0.1139238330779227</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>0.07542483061321778</v>
+      </c>
+      <c r="I6">
+        <v>0.2574299651616514</v>
+      </c>
+      <c r="J6">
+        <v>-0.3304969468539271</v>
+      </c>
+      <c r="K6">
+        <v>-0.09019788017447591</v>
+      </c>
+      <c r="L6">
+        <v>0.2037940052158937</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B7">
-        <v>0.08115072828062593</v>
+        <v>0.07783943513728767</v>
       </c>
       <c r="C7">
-        <v>-0.04581650541293312</v>
+        <v>0.06285906450420788</v>
       </c>
       <c r="D7">
-        <v>-0.04546701565166227</v>
+        <v>-0.03068161513264472</v>
       </c>
       <c r="E7">
-        <v>0.03103882100959568</v>
+        <v>-0.01579915022007704</v>
       </c>
       <c r="F7">
-        <v>-0.02957746527860145</v>
+        <v>0.03127603179948796</v>
       </c>
       <c r="G7">
-        <v>-0.001363774883612661</v>
+        <v>0.008621579921375095</v>
       </c>
       <c r="H7">
-        <v>-0.02405600150889594</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>-0.01362427551707359</v>
+      </c>
+      <c r="I7">
+        <v>0.01003877235874533</v>
+      </c>
+      <c r="J7">
+        <v>0.0385964372694264</v>
+      </c>
+      <c r="K7">
+        <v>0.1149528274925176</v>
+      </c>
+      <c r="L7">
+        <v>-0.02510631858541569</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B8">
-        <v>0.03980429043827374</v>
+        <v>0.04541267789272805</v>
       </c>
       <c r="C8">
-        <v>-0.002389246936101774</v>
+        <v>0.01711572890241935</v>
       </c>
       <c r="D8">
-        <v>-0.05615738484203156</v>
+        <v>-0.007718293441262802</v>
       </c>
       <c r="E8">
-        <v>0.05823777113768537</v>
+        <v>-0.01773251039450821</v>
       </c>
       <c r="F8">
-        <v>0.04765105195400418</v>
+        <v>0.1392932692260865</v>
       </c>
       <c r="G8">
-        <v>-0.08315014790229128</v>
+        <v>-0.01283189138006114</v>
       </c>
       <c r="H8">
-        <v>-0.09598963174248185</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>0.05263606662459713</v>
+      </c>
+      <c r="I8">
+        <v>0.06752975474017406</v>
+      </c>
+      <c r="J8">
+        <v>-0.008221881859357854</v>
+      </c>
+      <c r="K8">
+        <v>0.08401472776155119</v>
+      </c>
+      <c r="L8">
+        <v>0.06255376979081345</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B9">
-        <v>0.08137018938140918</v>
+        <v>0.08523556569498059</v>
       </c>
       <c r="C9">
-        <v>-0.04429270849305414</v>
+        <v>0.05876125693581186</v>
       </c>
       <c r="D9">
-        <v>-0.0306137145487458</v>
+        <v>-0.02283141367917361</v>
       </c>
       <c r="E9">
-        <v>0.02532486009762559</v>
+        <v>0.0008346843938641992</v>
       </c>
       <c r="F9">
-        <v>0.01987554004656245</v>
+        <v>0.1360031622434495</v>
       </c>
       <c r="G9">
-        <v>-0.03438101684048431</v>
+        <v>0.007255624038860568</v>
       </c>
       <c r="H9">
-        <v>-0.03970864983768705</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>-0.006905366038441553</v>
+      </c>
+      <c r="I9">
+        <v>0.01911821818953798</v>
+      </c>
+      <c r="J9">
+        <v>-0.006491062738350724</v>
+      </c>
+      <c r="K9">
+        <v>0.05787054094378612</v>
+      </c>
+      <c r="L9">
+        <v>0.03922742300257973</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B10">
-        <v>0.04205995280057211</v>
+        <v>0.1045932859383378</v>
       </c>
       <c r="C10">
-        <v>0.1426164839406862</v>
+        <v>-0.1615472172507013</v>
       </c>
       <c r="D10">
-        <v>-0.08039453855432323</v>
+        <v>-0.05520508351192099</v>
       </c>
       <c r="E10">
-        <v>0.03095497379369844</v>
+        <v>-0.02912845984193655</v>
       </c>
       <c r="F10">
-        <v>-0.04221343602470763</v>
+        <v>-0.01203182849477443</v>
       </c>
       <c r="G10">
-        <v>0.0007560740178914369</v>
+        <v>0.01847195472970932</v>
       </c>
       <c r="H10">
-        <v>-0.00450021790722801</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>-0.0377055012439934</v>
+      </c>
+      <c r="I10">
+        <v>0.006428773405150615</v>
+      </c>
+      <c r="J10">
+        <v>-0.0244197779379788</v>
+      </c>
+      <c r="K10">
+        <v>0.0003317962817133826</v>
+      </c>
+      <c r="L10">
+        <v>-0.06031479853269049</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B11">
-        <v>0.07057005066394334</v>
+        <v>0.07393302859948903</v>
       </c>
       <c r="C11">
-        <v>-0.06516601081487247</v>
+        <v>0.06892235912788494</v>
       </c>
       <c r="D11">
-        <v>-0.005054836307222962</v>
+        <v>-0.006673322615775541</v>
       </c>
       <c r="E11">
-        <v>-0.008311764689317953</v>
+        <v>0.02462721836573587</v>
       </c>
       <c r="F11">
-        <v>0.003644459524101843</v>
+        <v>0.1328159185235259</v>
       </c>
       <c r="G11">
-        <v>-0.1212584629828577</v>
+        <v>-0.0136727758865054</v>
       </c>
       <c r="H11">
-        <v>-0.04648208282280283</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>-0.05962432134916803</v>
+      </c>
+      <c r="I11">
+        <v>-0.03209286559792549</v>
+      </c>
+      <c r="J11">
+        <v>0.08828779704671656</v>
+      </c>
+      <c r="K11">
+        <v>-0.03003040039596969</v>
+      </c>
+      <c r="L11">
+        <v>0.03005595168375873</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B12">
-        <v>0.06411528520369446</v>
+        <v>0.06797182581335612</v>
       </c>
       <c r="C12">
-        <v>-0.03596479262094001</v>
+        <v>0.06127946543625442</v>
       </c>
       <c r="D12">
-        <v>0.006991360341738475</v>
+        <v>-0.01216796387655691</v>
       </c>
       <c r="E12">
-        <v>0.03410440678297847</v>
+        <v>0.02460872777072117</v>
       </c>
       <c r="F12">
-        <v>0.003599401840763583</v>
+        <v>0.1386473424511966</v>
       </c>
       <c r="G12">
-        <v>-0.1006712786860266</v>
+        <v>-0.02526321525172722</v>
       </c>
       <c r="H12">
-        <v>-0.07304221881894668</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>-0.05658696693661512</v>
+      </c>
+      <c r="I12">
+        <v>0.01366745203466824</v>
+      </c>
+      <c r="J12">
+        <v>0.09031932903620443</v>
+      </c>
+      <c r="K12">
+        <v>-0.01132987915075684</v>
+      </c>
+      <c r="L12">
+        <v>0.06113532886726863</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B13">
-        <v>0.05384699839093031</v>
+        <v>0.04327429090771512</v>
       </c>
       <c r="C13">
-        <v>-0.003335155264903236</v>
+        <v>0.03051357243963703</v>
       </c>
       <c r="D13">
-        <v>-0.003016158195578458</v>
+        <v>-0.009522362048853168</v>
       </c>
       <c r="E13">
-        <v>0.01380406276350215</v>
+        <v>-0.02220939367176407</v>
       </c>
       <c r="F13">
-        <v>0.04783014817823826</v>
+        <v>0.04872707362019792</v>
       </c>
       <c r="G13">
-        <v>-0.007976527569573786</v>
+        <v>0.006978848811858807</v>
       </c>
       <c r="H13">
-        <v>-0.06682211569550717</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>0.01113500121149863</v>
+      </c>
+      <c r="I13">
+        <v>0.02199191969554673</v>
+      </c>
+      <c r="J13">
+        <v>0.004738260605081655</v>
+      </c>
+      <c r="K13">
+        <v>0.04396279436580697</v>
+      </c>
+      <c r="L13">
+        <v>-0.01712509674116769</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B14">
-        <v>0.05084476480998886</v>
+        <v>0.03835296682870107</v>
       </c>
       <c r="C14">
-        <v>-0.01049834880999304</v>
+        <v>0.02284662383667043</v>
       </c>
       <c r="D14">
-        <v>-0.01991479002494506</v>
+        <v>-0.009879687920635616</v>
       </c>
       <c r="E14">
-        <v>0.03494550262340852</v>
+        <v>0.01140992571608453</v>
       </c>
       <c r="F14">
-        <v>0.00636250201560393</v>
+        <v>0.06379250596608335</v>
       </c>
       <c r="G14">
-        <v>-0.01076342785406416</v>
+        <v>-0.003203918575116702</v>
       </c>
       <c r="H14">
-        <v>-0.09635414212233545</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>0.0285428711997642</v>
+      </c>
+      <c r="I14">
+        <v>0.007192330690901529</v>
+      </c>
+      <c r="J14">
+        <v>-0.03561205089144067</v>
+      </c>
+      <c r="K14">
+        <v>0.09968709328515954</v>
+      </c>
+      <c r="L14">
+        <v>0.03224458030992644</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B15">
-        <v>0.03543998034766319</v>
+        <v>0.02478578861899416</v>
       </c>
       <c r="C15">
-        <v>0.00738495540404025</v>
+        <v>0.01413281782698556</v>
       </c>
       <c r="D15">
-        <v>-0.007357942805775151</v>
+        <v>0.006368080861546481</v>
       </c>
       <c r="E15">
-        <v>0.009546924840807131</v>
+        <v>-0.04805752839909268</v>
       </c>
       <c r="F15">
-        <v>0.01953755972102293</v>
+        <v>0.007183419368339892</v>
       </c>
       <c r="G15">
-        <v>0.0007999075131916745</v>
+        <v>0.03530176916903887</v>
       </c>
       <c r="H15">
-        <v>-0.02347956608446513</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>-0.0008298469905684465</v>
+      </c>
+      <c r="I15">
+        <v>-0.002256474413802732</v>
+      </c>
+      <c r="J15">
+        <v>-0.05248097737451449</v>
+      </c>
+      <c r="K15">
+        <v>0.06328769198508935</v>
+      </c>
+      <c r="L15">
+        <v>-0.01828129782886873</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B16">
-        <v>0.07075907597854206</v>
+        <v>0.07780457958925038</v>
       </c>
       <c r="C16">
-        <v>-0.07292328858531986</v>
+        <v>0.0726713539639247</v>
       </c>
       <c r="D16">
-        <v>-0.01488290090952281</v>
+        <v>-0.002725995976034064</v>
       </c>
       <c r="E16">
-        <v>0.03158223073952859</v>
+        <v>0.01813036531854055</v>
       </c>
       <c r="F16">
-        <v>0.03695893531937399</v>
+        <v>0.1289677731411767</v>
       </c>
       <c r="G16">
-        <v>-0.07876098599826449</v>
+        <v>-0.02319496917289976</v>
       </c>
       <c r="H16">
-        <v>-0.05028874034048254</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>-0.05253279748454468</v>
+      </c>
+      <c r="I16">
+        <v>-0.02712190116514911</v>
+      </c>
+      <c r="J16">
+        <v>0.1011503632687084</v>
+      </c>
+      <c r="K16">
+        <v>-0.004287057009440309</v>
+      </c>
+      <c r="L16">
+        <v>0.05496538806658944</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1145,10 +1349,22 @@
       <c r="H17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:8">
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1171,10 +1387,22 @@
       <c r="H18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:8">
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1197,192 +1425,288 @@
       <c r="H19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:8">
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B20">
-        <v>0.05089440143236117</v>
+        <v>0.04540694165835338</v>
       </c>
       <c r="C20">
-        <v>-0.03376008759015586</v>
+        <v>0.0347870291243688</v>
       </c>
       <c r="D20">
-        <v>-0.006642094916328343</v>
+        <v>-0.0132123959775787</v>
       </c>
       <c r="E20">
-        <v>0.01534659207125665</v>
+        <v>-0.02288664628667523</v>
       </c>
       <c r="F20">
-        <v>0.01156966829826401</v>
+        <v>0.06293950101750746</v>
       </c>
       <c r="G20">
-        <v>-0.03314550568769932</v>
+        <v>-0.01222760921719039</v>
       </c>
       <c r="H20">
-        <v>-0.04833312595349289</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>-0.006210625261433027</v>
+      </c>
+      <c r="I20">
+        <v>0.03579746288302127</v>
+      </c>
+      <c r="J20">
+        <v>-0.01122260365861547</v>
+      </c>
+      <c r="K20">
+        <v>0.08004668579047679</v>
+      </c>
+      <c r="L20">
+        <v>0.007534732894068896</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B21">
-        <v>0.02148816612903828</v>
+        <v>0.02365443941736255</v>
       </c>
       <c r="C21">
-        <v>-0.02985721481998586</v>
+        <v>0.02163028468194382</v>
       </c>
       <c r="D21">
-        <v>0.009711495440899453</v>
+        <v>-0.001053299287139201</v>
       </c>
       <c r="E21">
-        <v>0.04951367169548412</v>
+        <v>-0.003061457402241106</v>
       </c>
       <c r="F21">
-        <v>-0.07730026076084746</v>
+        <v>0.0629773090765679</v>
       </c>
       <c r="G21">
-        <v>0.01259848231128217</v>
+        <v>0.04503018492699546</v>
       </c>
       <c r="H21">
-        <v>0.06123296833579318</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>-0.09348132523752646</v>
+      </c>
+      <c r="I21">
+        <v>0.05356208597245757</v>
+      </c>
+      <c r="J21">
+        <v>-0.06103278453107279</v>
+      </c>
+      <c r="K21">
+        <v>0.1054837245087181</v>
+      </c>
+      <c r="L21">
+        <v>-0.08400002786297406</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
       <c r="A22" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B22">
-        <v>0.03239160826421324</v>
+        <v>0.05095453600427362</v>
       </c>
       <c r="C22">
-        <v>-0.03382819311368623</v>
+        <v>0.02391216582656077</v>
       </c>
       <c r="D22">
-        <v>0.0480713463788613</v>
+        <v>0.09091123268204047</v>
       </c>
       <c r="E22">
-        <v>0.5005727833906666</v>
+        <v>-0.6534633118262383</v>
       </c>
       <c r="F22">
-        <v>0.2740227728710938</v>
+        <v>-0.06013363575513624</v>
       </c>
       <c r="G22">
-        <v>0.1829970993340576</v>
+        <v>-0.1340446873345187</v>
       </c>
       <c r="H22">
-        <v>0.2775325749957541</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>-0.07820753824374742</v>
+      </c>
+      <c r="I22">
+        <v>0.01420267801816947</v>
+      </c>
+      <c r="J22">
+        <v>0.03535775893768869</v>
+      </c>
+      <c r="K22">
+        <v>-0.04873499584028179</v>
+      </c>
+      <c r="L22">
+        <v>0.001028564062012245</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B23">
-        <v>0.03222834926101729</v>
+        <v>0.05139757971983534</v>
       </c>
       <c r="C23">
-        <v>-0.03354662288451873</v>
+        <v>0.02457563556324939</v>
       </c>
       <c r="D23">
-        <v>0.04700701259799672</v>
+        <v>0.09121779389654484</v>
       </c>
       <c r="E23">
-        <v>0.4997462044321846</v>
+        <v>-0.6552289956153258</v>
       </c>
       <c r="F23">
-        <v>0.2746498234686826</v>
+        <v>-0.05737194485874852</v>
       </c>
       <c r="G23">
-        <v>0.1839108691580802</v>
+        <v>-0.134849932854286</v>
       </c>
       <c r="H23">
-        <v>0.2763210783203299</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>-0.07516314042814293</v>
+      </c>
+      <c r="I23">
+        <v>0.01516075056267585</v>
+      </c>
+      <c r="J23">
+        <v>0.03394672139977747</v>
+      </c>
+      <c r="K23">
+        <v>-0.05125104111636543</v>
+      </c>
+      <c r="L23">
+        <v>0.003135665306455635</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
       <c r="A24" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B24">
-        <v>0.08171489479961168</v>
+        <v>0.08258911839465993</v>
       </c>
       <c r="C24">
-        <v>-0.05328913464889217</v>
+        <v>0.06620813774973829</v>
       </c>
       <c r="D24">
-        <v>-0.01327118167805132</v>
+        <v>-0.008727150451816349</v>
       </c>
       <c r="E24">
-        <v>0.03620039205138986</v>
+        <v>0.01446549786941512</v>
       </c>
       <c r="F24">
-        <v>0.01419588792810735</v>
+        <v>0.1266548588100351</v>
       </c>
       <c r="G24">
-        <v>-0.08681857557651922</v>
+        <v>-0.02274244507204945</v>
       </c>
       <c r="H24">
-        <v>-0.05347589943407403</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>-0.07046910756708023</v>
+      </c>
+      <c r="I24">
+        <v>-0.0426966940950964</v>
+      </c>
+      <c r="J24">
+        <v>0.08998712003376533</v>
+      </c>
+      <c r="K24">
+        <v>-0.03292020461547114</v>
+      </c>
+      <c r="L24">
+        <v>0.05239892318346809</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
       <c r="A25" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B25">
-        <v>0.07215496817124904</v>
+        <v>0.07910264531705957</v>
       </c>
       <c r="C25">
-        <v>-0.02515607160985781</v>
+        <v>0.04995340770634565</v>
       </c>
       <c r="D25">
-        <v>-0.01822552751962742</v>
+        <v>-0.01867405255325069</v>
       </c>
       <c r="E25">
-        <v>0.0293508357828402</v>
+        <v>0.02611429938852275</v>
       </c>
       <c r="F25">
-        <v>0.005246514957375377</v>
+        <v>0.127572265093093</v>
       </c>
       <c r="G25">
-        <v>-0.08496582435907457</v>
+        <v>-0.02832131562894187</v>
       </c>
       <c r="H25">
-        <v>-0.05831780302240024</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>-0.04629958562026714</v>
+      </c>
+      <c r="I25">
+        <v>-0.02236428818549733</v>
+      </c>
+      <c r="J25">
+        <v>0.08670261307110819</v>
+      </c>
+      <c r="K25">
+        <v>-0.02269115554526728</v>
+      </c>
+      <c r="L25">
+        <v>0.07015318835272301</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
       <c r="A26" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B26">
-        <v>0.05237385642411525</v>
+        <v>0.04249832158511451</v>
       </c>
       <c r="C26">
-        <v>-0.03613968993921929</v>
+        <v>0.009994328080395741</v>
       </c>
       <c r="D26">
-        <v>-0.03275201241413884</v>
+        <v>-0.0008369753479390844</v>
       </c>
       <c r="E26">
-        <v>-0.001124633110201125</v>
+        <v>-0.01075841359174612</v>
       </c>
       <c r="F26">
-        <v>0.02117371961403473</v>
+        <v>0.0450333814941405</v>
       </c>
       <c r="G26">
-        <v>0.004509330779861587</v>
+        <v>-0.03307996989302402</v>
       </c>
       <c r="H26">
-        <v>-0.06848072699503413</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>-0.002941095590473238</v>
+      </c>
+      <c r="I26">
+        <v>-0.008561506521209157</v>
+      </c>
+      <c r="J26">
+        <v>-0.05054537436511677</v>
+      </c>
+      <c r="K26">
+        <v>0.1017025700641474</v>
+      </c>
+      <c r="L26">
+        <v>-0.03361547537642352</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
       <c r="A27" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1405,244 +1729,364 @@
       <c r="H27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:8">
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
       <c r="A28" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B28">
-        <v>0.0860327009082756</v>
+        <v>0.1338760740753666</v>
       </c>
       <c r="C28">
-        <v>0.2972663740093081</v>
+        <v>-0.2938056896984285</v>
       </c>
       <c r="D28">
-        <v>-0.07099475956268916</v>
+        <v>0.0071189173670511</v>
       </c>
       <c r="E28">
-        <v>-0.007233297317956478</v>
+        <v>0.008700833736713222</v>
       </c>
       <c r="F28">
-        <v>-0.03593771071251672</v>
+        <v>0.01383943679804467</v>
       </c>
       <c r="G28">
-        <v>0.007737421241494981</v>
+        <v>0.005070463748155925</v>
       </c>
       <c r="H28">
-        <v>0.05657517746281094</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>-0.01244280800482969</v>
+      </c>
+      <c r="I28">
+        <v>0.01727094482480219</v>
+      </c>
+      <c r="J28">
+        <v>0.0162532436719473</v>
+      </c>
+      <c r="K28">
+        <v>-0.001442160029055769</v>
+      </c>
+      <c r="L28">
+        <v>-0.01466876598047885</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
       <c r="A29" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B29">
-        <v>0.05151446247154189</v>
+        <v>0.03905176537378578</v>
       </c>
       <c r="C29">
-        <v>-0.002962235477873075</v>
+        <v>0.02176623395320459</v>
       </c>
       <c r="D29">
-        <v>-0.006474719872082065</v>
+        <v>-0.01988204864292968</v>
       </c>
       <c r="E29">
-        <v>0.03966153229466677</v>
+        <v>0.0001566425798186236</v>
       </c>
       <c r="F29">
-        <v>0.0295478570742381</v>
+        <v>0.06428719465752837</v>
       </c>
       <c r="G29">
-        <v>-0.001946567062585476</v>
+        <v>-0.02760261796000229</v>
       </c>
       <c r="H29">
-        <v>-0.03444103412661855</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>0.009369875395590744</v>
+      </c>
+      <c r="I29">
+        <v>0.01398175463235543</v>
+      </c>
+      <c r="J29">
+        <v>-0.03463991750093031</v>
+      </c>
+      <c r="K29">
+        <v>0.09979948999537372</v>
+      </c>
+      <c r="L29">
+        <v>0.01700783549358414</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
       <c r="A30" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B30">
-        <v>0.1180502711329877</v>
+        <v>0.1051820921559658</v>
       </c>
       <c r="C30">
-        <v>-0.02563092606728821</v>
+        <v>0.05572538554465421</v>
       </c>
       <c r="D30">
-        <v>-0.05022255078014018</v>
+        <v>0.02293257745192588</v>
       </c>
       <c r="E30">
-        <v>0.1110007055891244</v>
+        <v>0.01561261371033706</v>
       </c>
       <c r="F30">
-        <v>-0.03482844146160658</v>
+        <v>0.2051767402131857</v>
       </c>
       <c r="G30">
-        <v>-0.1893273756722421</v>
+        <v>-0.1209673359330125</v>
       </c>
       <c r="H30">
-        <v>-0.01881347626737782</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>-0.1822216919410199</v>
+      </c>
+      <c r="I30">
+        <v>0.2172115134012766</v>
+      </c>
+      <c r="J30">
+        <v>0.03669865279824101</v>
+      </c>
+      <c r="K30">
+        <v>0.0577008283689537</v>
+      </c>
+      <c r="L30">
+        <v>0.08115385804216987</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
       <c r="A31" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B31">
-        <v>0.05220677775746473</v>
+        <v>0.04015111533291091</v>
       </c>
       <c r="C31">
-        <v>-0.01936862259751538</v>
+        <v>0.04353511190084591</v>
       </c>
       <c r="D31">
-        <v>0.01135279826337952</v>
+        <v>-0.00373219445674151</v>
       </c>
       <c r="E31">
-        <v>0.00116134236803681</v>
+        <v>-0.005098759445595969</v>
       </c>
       <c r="F31">
-        <v>0.02624837491154778</v>
+        <v>0.02466247797438891</v>
       </c>
       <c r="G31">
-        <v>0.03041549912811161</v>
+        <v>-0.01568415100651131</v>
       </c>
       <c r="H31">
-        <v>-0.0397028473273341</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>0.03558816970844723</v>
+      </c>
+      <c r="I31">
+        <v>-0.02547076454078964</v>
+      </c>
+      <c r="J31">
+        <v>-0.0001142861349678728</v>
+      </c>
+      <c r="K31">
+        <v>0.03311987200864299</v>
+      </c>
+      <c r="L31">
+        <v>0.03600243891355347</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
       <c r="A32" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B32">
-        <v>0.03129346554859797</v>
+        <v>0.04835215773937893</v>
       </c>
       <c r="C32">
-        <v>0.01665674540333456</v>
+        <v>0.003158667065849467</v>
       </c>
       <c r="D32">
-        <v>0.001285959278959752</v>
+        <v>0.02959977804481858</v>
       </c>
       <c r="E32">
-        <v>0.07886651679958123</v>
+        <v>0.02468395573506301</v>
       </c>
       <c r="F32">
-        <v>0.1066238234160581</v>
+        <v>0.0651591681320101</v>
       </c>
       <c r="G32">
-        <v>-0.05018656517810596</v>
+        <v>0.01088715544082167</v>
       </c>
       <c r="H32">
-        <v>-0.01124302731414284</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>0.007553819924893302</v>
+      </c>
+      <c r="I32">
+        <v>-0.03318959248586689</v>
+      </c>
+      <c r="J32">
+        <v>0.003283113930707262</v>
+      </c>
+      <c r="K32">
+        <v>0.0809962044563033</v>
+      </c>
+      <c r="L32">
+        <v>0.01147716139545889</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
       <c r="A33" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B33">
-        <v>0.1147749216084843</v>
+        <v>0.09720631400045628</v>
       </c>
       <c r="C33">
-        <v>-0.02675341705404361</v>
+        <v>0.0560271463568426</v>
       </c>
       <c r="D33">
-        <v>0.002409864308450612</v>
+        <v>0.001220133548059429</v>
       </c>
       <c r="E33">
-        <v>0.00487796570854434</v>
+        <v>0.02565638819328645</v>
       </c>
       <c r="F33">
-        <v>0.06380137399031496</v>
+        <v>0.08247681065132062</v>
       </c>
       <c r="G33">
-        <v>-0.03760602986789956</v>
+        <v>-0.00792449350988308</v>
       </c>
       <c r="H33">
-        <v>-0.07757242379895651</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>-0.004301191514049801</v>
+      </c>
+      <c r="I33">
+        <v>-0.009348146596241698</v>
+      </c>
+      <c r="J33">
+        <v>-0.006476580565349019</v>
+      </c>
+      <c r="K33">
+        <v>0.02365298729527672</v>
+      </c>
+      <c r="L33">
+        <v>0.02772544299850603</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
       <c r="A34" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B34">
-        <v>0.05892437119649517</v>
+        <v>0.0650788366213985</v>
       </c>
       <c r="C34">
-        <v>-0.05712010417455217</v>
+        <v>0.0539848861122539</v>
       </c>
       <c r="D34">
-        <v>-0.0007705159479158363</v>
+        <v>-0.007020159796471665</v>
       </c>
       <c r="E34">
-        <v>0.01645257074499369</v>
+        <v>0.02319944449215804</v>
       </c>
       <c r="F34">
-        <v>0.01220260774284527</v>
+        <v>0.1164857767431683</v>
       </c>
       <c r="G34">
-        <v>-0.064339843590066</v>
+        <v>-0.01585509365890509</v>
       </c>
       <c r="H34">
-        <v>-0.04828336560648087</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>-0.03692413757346444</v>
+      </c>
+      <c r="I34">
+        <v>-0.02689065570578521</v>
+      </c>
+      <c r="J34">
+        <v>0.08452464609212233</v>
+      </c>
+      <c r="K34">
+        <v>0.02991277475714737</v>
+      </c>
+      <c r="L34">
+        <v>0.04505820375834752</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
       <c r="A35" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B35">
-        <v>0.04678733130594946</v>
+        <v>0.02243838254746659</v>
       </c>
       <c r="C35">
-        <v>-0.02093828617434135</v>
+        <v>0.02145468239642459</v>
       </c>
       <c r="D35">
-        <v>0.01026002590203986</v>
+        <v>-0.003666639275874203</v>
       </c>
       <c r="E35">
-        <v>0.0150481258399717</v>
+        <v>0.00564987363580417</v>
       </c>
       <c r="F35">
-        <v>-0.02359088482625699</v>
+        <v>0.03152053457847045</v>
       </c>
       <c r="G35">
-        <v>-0.02018113570529857</v>
+        <v>-0.02041265052252438</v>
       </c>
       <c r="H35">
-        <v>-0.06785391192506855</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>-0.02220635722539026</v>
+      </c>
+      <c r="I35">
+        <v>0.01948215364492815</v>
+      </c>
+      <c r="J35">
+        <v>0.03102431344492299</v>
+      </c>
+      <c r="K35">
+        <v>0.07820600905637401</v>
+      </c>
+      <c r="L35">
+        <v>0.01141003787486418</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
       <c r="A36" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B36">
-        <v>0.03527969409825385</v>
+        <v>0.02642897301744727</v>
       </c>
       <c r="C36">
-        <v>-0.008293052529540093</v>
+        <v>0.01275306075234859</v>
       </c>
       <c r="D36">
-        <v>-0.01913026259860278</v>
+        <v>-0.0002076380111926111</v>
       </c>
       <c r="E36">
-        <v>0.02878347464918068</v>
+        <v>-0.01159618964102425</v>
       </c>
       <c r="F36">
-        <v>0.01269180099656175</v>
+        <v>0.06659705340622833</v>
       </c>
       <c r="G36">
-        <v>-0.01659587567176819</v>
+        <v>-0.01735528381529572</v>
       </c>
       <c r="H36">
-        <v>-0.07259102531635116</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>-0.01040387479804997</v>
+      </c>
+      <c r="I36">
+        <v>0.01264885925758011</v>
+      </c>
+      <c r="J36">
+        <v>-0.03656166867831533</v>
+      </c>
+      <c r="K36">
+        <v>0.02866961670223713</v>
+      </c>
+      <c r="L36">
+        <v>0.01935900636401562</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
       <c r="A37" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1665,114 +2109,174 @@
       <c r="H37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:8">
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
       <c r="A38" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B38">
-        <v>0.05038764470249699</v>
+        <v>0.0251964878747689</v>
       </c>
       <c r="C38">
-        <v>-0.02809167050185608</v>
+        <v>0.03689110624550647</v>
       </c>
       <c r="D38">
-        <v>0.003989355812502274</v>
+        <v>-0.01022375243259894</v>
       </c>
       <c r="E38">
-        <v>0.02202555230274004</v>
+        <v>-0.01923438858456267</v>
       </c>
       <c r="F38">
-        <v>0.01790356617150573</v>
+        <v>-0.04892345087300576</v>
       </c>
       <c r="G38">
-        <v>-0.03902219888720337</v>
+        <v>-0.0296809543219003</v>
       </c>
       <c r="H38">
-        <v>0.03203988407059065</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>-0.006890344027218707</v>
+      </c>
+      <c r="I38">
+        <v>0.008860326653378514</v>
+      </c>
+      <c r="J38">
+        <v>-0.0006287032660943448</v>
+      </c>
+      <c r="K38">
+        <v>0.03476374909532987</v>
+      </c>
+      <c r="L38">
+        <v>-0.08175938637351209</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
       <c r="A39" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B39">
-        <v>0.1035199467947062</v>
+        <v>0.1082517429540897</v>
       </c>
       <c r="C39">
-        <v>-0.06531697298569833</v>
+        <v>0.08317498970788678</v>
       </c>
       <c r="D39">
-        <v>0.006630513737037934</v>
+        <v>-0.005848671600892252</v>
       </c>
       <c r="E39">
-        <v>0.03403513207234397</v>
+        <v>0.09138388310863553</v>
       </c>
       <c r="F39">
-        <v>0.01124520131098751</v>
+        <v>0.1568031655820256</v>
       </c>
       <c r="G39">
-        <v>-0.1222969491261585</v>
+        <v>-0.1061678503824242</v>
       </c>
       <c r="H39">
-        <v>-0.01223574532755453</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>-0.0806260664468121</v>
+      </c>
+      <c r="I39">
+        <v>0.01254576700891611</v>
+      </c>
+      <c r="J39">
+        <v>0.2122481070989199</v>
+      </c>
+      <c r="K39">
+        <v>-0.0440030896529363</v>
+      </c>
+      <c r="L39">
+        <v>0.07704303177069907</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
       <c r="A40" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B40">
-        <v>0.04809186870014999</v>
+        <v>0.0330146654736882</v>
       </c>
       <c r="C40">
-        <v>-0.0170396179163426</v>
+        <v>0.05601038963829047</v>
       </c>
       <c r="D40">
-        <v>0.04161577431718412</v>
+        <v>-0.005316890774166749</v>
       </c>
       <c r="E40">
-        <v>0.09544681590223492</v>
+        <v>-0.03780899732109396</v>
       </c>
       <c r="F40">
-        <v>0.02692978267070162</v>
+        <v>0.1002670938163529</v>
       </c>
       <c r="G40">
-        <v>-0.1438003738287104</v>
+        <v>-0.003412427262604239</v>
       </c>
       <c r="H40">
-        <v>-0.1158544104337891</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>-0.09575893652259729</v>
+      </c>
+      <c r="I40">
+        <v>0.01229408853246149</v>
+      </c>
+      <c r="J40">
+        <v>-0.05251129649537376</v>
+      </c>
+      <c r="K40">
+        <v>0.02738209135099643</v>
+      </c>
+      <c r="L40">
+        <v>-0.126313055894546</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12">
       <c r="A41" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B41">
-        <v>0.04649899842085616</v>
+        <v>0.03631368807537754</v>
       </c>
       <c r="C41">
-        <v>-0.03818603440648258</v>
+        <v>0.03174700857562118</v>
       </c>
       <c r="D41">
-        <v>0.0004241376445303345</v>
+        <v>-0.01636093474124959</v>
       </c>
       <c r="E41">
-        <v>-0.006955541514727199</v>
+        <v>0.01654638079684727</v>
       </c>
       <c r="F41">
-        <v>0.01633291844953144</v>
+        <v>0.01828707565098088</v>
       </c>
       <c r="G41">
-        <v>-0.03154324195920037</v>
+        <v>-0.02209045260262676</v>
       </c>
       <c r="H41">
-        <v>-0.01399136420475085</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>0.003332823206751114</v>
+      </c>
+      <c r="I41">
+        <v>0.001024470039482254</v>
+      </c>
+      <c r="J41">
+        <v>0.02063306569915649</v>
+      </c>
+      <c r="K41">
+        <v>0.05664862187898572</v>
+      </c>
+      <c r="L41">
+        <v>-0.009858314907772083</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12">
       <c r="A42" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1795,62 +2299,98 @@
       <c r="H42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:8">
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
       <c r="A43" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B43">
-        <v>0.0673469974210653</v>
+        <v>0.05128186126465152</v>
       </c>
       <c r="C43">
-        <v>-0.03310966286384885</v>
+        <v>0.03364614417614007</v>
       </c>
       <c r="D43">
-        <v>-0.01985300097981714</v>
+        <v>-0.01195011341455955</v>
       </c>
       <c r="E43">
-        <v>0.02420835498923282</v>
+        <v>-0.01391311192268345</v>
       </c>
       <c r="F43">
-        <v>0.01522589314063272</v>
+        <v>0.008776399564159123</v>
       </c>
       <c r="G43">
-        <v>-0.00292994016537912</v>
+        <v>-0.04786439410635688</v>
       </c>
       <c r="H43">
-        <v>0.01079213385248</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>0.02311454038408901</v>
+      </c>
+      <c r="I43">
+        <v>0.02286148973060665</v>
+      </c>
+      <c r="J43">
+        <v>0.04545344836218287</v>
+      </c>
+      <c r="K43">
+        <v>0.04517931484854316</v>
+      </c>
+      <c r="L43">
+        <v>0.02268773275732159</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12">
       <c r="A44" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B44">
-        <v>0.05128115059154234</v>
+        <v>0.1008811030254983</v>
       </c>
       <c r="C44">
-        <v>-0.02401192787236412</v>
+        <v>0.07509203843228146</v>
       </c>
       <c r="D44">
-        <v>-0.08332323244929088</v>
+        <v>-0.03598782616745489</v>
       </c>
       <c r="E44">
-        <v>0.05620145554351715</v>
+        <v>-0.09238850329492067</v>
       </c>
       <c r="F44">
-        <v>0.01413249581215493</v>
+        <v>0.1752519103603586</v>
       </c>
       <c r="G44">
-        <v>-0.1162779445177811</v>
+        <v>0.002317993333031789</v>
       </c>
       <c r="H44">
-        <v>-0.02929157156063199</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>-0.05783744288502881</v>
+      </c>
+      <c r="I44">
+        <v>-0.02857863290375861</v>
+      </c>
+      <c r="J44">
+        <v>-0.001588476104727007</v>
+      </c>
+      <c r="K44">
+        <v>0.09540754051346691</v>
+      </c>
+      <c r="L44">
+        <v>-0.08153831688105297</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12">
       <c r="A45" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1873,296 +2413,440 @@
       <c r="H45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:8">
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12">
       <c r="A46" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B46">
-        <v>0.04319756553596883</v>
+        <v>0.0360935078967322</v>
       </c>
       <c r="C46">
-        <v>-0.04637849600076624</v>
+        <v>0.03161592566685632</v>
       </c>
       <c r="D46">
-        <v>-0.01362057277907384</v>
+        <v>-0.02373739575742977</v>
       </c>
       <c r="E46">
-        <v>0.05831923796311806</v>
+        <v>-0.04067738686379731</v>
       </c>
       <c r="F46">
-        <v>0.03197162661519138</v>
+        <v>0.03965915244113219</v>
       </c>
       <c r="G46">
-        <v>-0.01490746328034817</v>
+        <v>-0.01456950919554514</v>
       </c>
       <c r="H46">
-        <v>-0.0424048320483241</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>-0.04316556676456788</v>
+      </c>
+      <c r="I46">
+        <v>-0.02759541751173635</v>
+      </c>
+      <c r="J46">
+        <v>-0.03589511085684594</v>
+      </c>
+      <c r="K46">
+        <v>0.1264620900902166</v>
+      </c>
+      <c r="L46">
+        <v>0.04172802120816843</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12">
       <c r="A47" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B47">
-        <v>0.04568489922144917</v>
+        <v>0.04172550172255638</v>
       </c>
       <c r="C47">
-        <v>-0.01462284296869864</v>
+        <v>0.02468609119457312</v>
       </c>
       <c r="D47">
-        <v>-0.004079511479711442</v>
+        <v>-0.004976047658648178</v>
       </c>
       <c r="E47">
-        <v>0.0741667110664575</v>
+        <v>-0.01901053870004363</v>
       </c>
       <c r="F47">
-        <v>0.01874250254472126</v>
+        <v>0.03572218228620872</v>
       </c>
       <c r="G47">
-        <v>0.02139122236185411</v>
+        <v>-0.001174016697033308</v>
       </c>
       <c r="H47">
-        <v>-0.02672016803991891</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>0.01282597790142444</v>
+      </c>
+      <c r="I47">
+        <v>0.02639394976499213</v>
+      </c>
+      <c r="J47">
+        <v>-0.02731815954080581</v>
+      </c>
+      <c r="K47">
+        <v>0.05025218684236626</v>
+      </c>
+      <c r="L47">
+        <v>-0.01098990030296733</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12">
       <c r="A48" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B48">
-        <v>0.04610310674045074</v>
+        <v>0.0423586070790238</v>
       </c>
       <c r="C48">
-        <v>-0.007789072973809483</v>
+        <v>0.01421875025277085</v>
       </c>
       <c r="D48">
-        <v>0.004720473584785295</v>
+        <v>-0.007138302530257325</v>
       </c>
       <c r="E48">
-        <v>0.03745733016047557</v>
+        <v>-0.003668979681864945</v>
       </c>
       <c r="F48">
-        <v>0.02532244536594547</v>
+        <v>0.06665002216452816</v>
       </c>
       <c r="G48">
-        <v>0.006914068515980218</v>
+        <v>0.004459698816421032</v>
       </c>
       <c r="H48">
-        <v>-0.06020699375712535</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>-0.03977926785780179</v>
+      </c>
+      <c r="I48">
+        <v>0.00728377788919113</v>
+      </c>
+      <c r="J48">
+        <v>-0.01744079768687175</v>
+      </c>
+      <c r="K48">
+        <v>0.04571401923450678</v>
+      </c>
+      <c r="L48">
+        <v>0.03657420472491982</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12">
       <c r="A49" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B49">
-        <v>0.2353868815065308</v>
+        <v>0.2250720037730558</v>
       </c>
       <c r="C49">
-        <v>-0.115335602086435</v>
+        <v>0.06179928182445314</v>
       </c>
       <c r="D49">
-        <v>-0.04495908872362286</v>
+        <v>-0.08553471648945503</v>
       </c>
       <c r="E49">
-        <v>-0.01570459225397402</v>
+        <v>0.03962802492297132</v>
       </c>
       <c r="F49">
-        <v>-0.1651281495422605</v>
+        <v>-0.2272484597236406</v>
       </c>
       <c r="G49">
-        <v>0.005853950169975257</v>
+        <v>0.0915573338817</v>
       </c>
       <c r="H49">
-        <v>0.1608260989859797</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>-0.1998786549294447</v>
+      </c>
+      <c r="I49">
+        <v>-0.01440918718386792</v>
+      </c>
+      <c r="J49">
+        <v>0.09973413375712861</v>
+      </c>
+      <c r="K49">
+        <v>-0.1715281198476425</v>
+      </c>
+      <c r="L49">
+        <v>0.02773132913398062</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12">
       <c r="A50" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B50">
-        <v>0.05666833022032659</v>
+        <v>0.04499978072394693</v>
       </c>
       <c r="C50">
-        <v>-0.0272399340677442</v>
+        <v>0.02989362888091043</v>
       </c>
       <c r="D50">
-        <v>0.005841571052668333</v>
+        <v>-0.001494620920916838</v>
       </c>
       <c r="E50">
-        <v>0.01954348083667417</v>
+        <v>0.0005997650399372116</v>
       </c>
       <c r="F50">
-        <v>0.05779998990063621</v>
+        <v>0.04384647768406533</v>
       </c>
       <c r="G50">
-        <v>0.03523456084742589</v>
+        <v>-0.03630333751278168</v>
       </c>
       <c r="H50">
-        <v>-0.05243372776298537</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>0.02682806991214211</v>
+      </c>
+      <c r="I50">
+        <v>-0.01310513112334403</v>
+      </c>
+      <c r="J50">
+        <v>-0.02148186653877526</v>
+      </c>
+      <c r="K50">
+        <v>0.04399347363970553</v>
+      </c>
+      <c r="L50">
+        <v>0.03939992015456571</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12">
       <c r="A51" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B51">
-        <v>0.02862652761008597</v>
+        <v>0.02362897832870509</v>
       </c>
       <c r="C51">
-        <v>-0.0112600516440526</v>
+        <v>0.0004070225137667264</v>
       </c>
       <c r="D51">
-        <v>-0.004362053431677235</v>
+        <v>-0.01523383829382504</v>
       </c>
       <c r="E51">
-        <v>-0.006556058446222334</v>
+        <v>-0.001696818373546844</v>
       </c>
       <c r="F51">
-        <v>-0.006841070334461236</v>
+        <v>-0.02194572166177148</v>
       </c>
       <c r="G51">
-        <v>-0.008481663993011384</v>
+        <v>0.01104626178731725</v>
       </c>
       <c r="H51">
-        <v>0.04034166925217515</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>0.005991251868469881</v>
+      </c>
+      <c r="I51">
+        <v>0.01031493712668037</v>
+      </c>
+      <c r="J51">
+        <v>0.06284160564370433</v>
+      </c>
+      <c r="K51">
+        <v>-0.02907379202127854</v>
+      </c>
+      <c r="L51">
+        <v>0.02302625261803083</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12">
       <c r="A52" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B52">
-        <v>0</v>
+        <v>0.05311975566151941</v>
       </c>
       <c r="C52">
-        <v>0</v>
+        <v>0.02580107790005728</v>
       </c>
       <c r="D52">
-        <v>0</v>
+        <v>0.00224874960457855</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>0.005290013774480527</v>
       </c>
       <c r="F52">
-        <v>0</v>
+        <v>0.0222421135347001</v>
       </c>
       <c r="G52">
-        <v>0</v>
+        <v>-0.07678007692391133</v>
       </c>
       <c r="H52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>0.03223820382997919</v>
+      </c>
+      <c r="I52">
+        <v>-0.04751290977783401</v>
+      </c>
+      <c r="J52">
+        <v>-0.04307432396152473</v>
+      </c>
+      <c r="K52">
+        <v>-0.03853520739125575</v>
+      </c>
+      <c r="L52">
+        <v>0.00139724082826516</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12">
       <c r="A53" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B53">
-        <v>0.1643347024041589</v>
+        <v>0.1610058978647542</v>
       </c>
       <c r="C53">
-        <v>-0.005300325879653396</v>
+        <v>0.03781183812432869</v>
       </c>
       <c r="D53">
-        <v>-0.02197393967433602</v>
+        <v>-0.02452738455931851</v>
       </c>
       <c r="E53">
-        <v>-0.1166044981003625</v>
+        <v>-0.0004382150174693335</v>
       </c>
       <c r="F53">
-        <v>0.2073991485758548</v>
+        <v>-0.06372463920711208</v>
       </c>
       <c r="G53">
-        <v>0.02035767358272684</v>
+        <v>-0.1526935201711644</v>
       </c>
       <c r="H53">
-        <v>-0.06544912818608715</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>0.1890955856004384</v>
+      </c>
+      <c r="I53">
+        <v>-0.1608311952868917</v>
+      </c>
+      <c r="J53">
+        <v>-0.07907274466139451</v>
+      </c>
+      <c r="K53">
+        <v>-0.03495599220518362</v>
+      </c>
+      <c r="L53">
+        <v>0.004820713306911525</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12">
       <c r="A54" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B54">
-        <v>0.04887160625063004</v>
+        <v>0.05559599572945848</v>
       </c>
       <c r="C54">
-        <v>-0.01235932467875865</v>
+        <v>0.04154959483316271</v>
       </c>
       <c r="D54">
-        <v>-0.01894185310737959</v>
+        <v>-0.01106513073222336</v>
       </c>
       <c r="E54">
-        <v>0.05265459653078543</v>
+        <v>-0.01732931187444218</v>
       </c>
       <c r="F54">
-        <v>0.03554801052785255</v>
+        <v>0.1240666340789579</v>
       </c>
       <c r="G54">
-        <v>-0.04275004624713453</v>
+        <v>0.02272775350108434</v>
       </c>
       <c r="H54">
-        <v>-0.08242875684183999</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>0.02896291893614905</v>
+      </c>
+      <c r="I54">
+        <v>0.03901850342103855</v>
+      </c>
+      <c r="J54">
+        <v>-0.07311282515886043</v>
+      </c>
+      <c r="K54">
+        <v>0.1387722886643224</v>
+      </c>
+      <c r="L54">
+        <v>-0.003619202560833624</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12">
       <c r="A55" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B55">
-        <v>0.09205960867318634</v>
+        <v>0.08986304483004658</v>
       </c>
       <c r="C55">
-        <v>-0.00839439411718444</v>
+        <v>0.03728774813152301</v>
       </c>
       <c r="D55">
-        <v>-0.02067730228187504</v>
+        <v>-0.02197578367124532</v>
       </c>
       <c r="E55">
-        <v>-0.04523627915562531</v>
+        <v>0.01925679209246841</v>
       </c>
       <c r="F55">
-        <v>0.1756308318077775</v>
+        <v>0.00923511268026265</v>
       </c>
       <c r="G55">
-        <v>0.01908109990485521</v>
+        <v>-0.07821894768375431</v>
       </c>
       <c r="H55">
-        <v>-0.1028403497906954</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>0.1223028292904663</v>
+      </c>
+      <c r="I55">
+        <v>-0.1072299469499731</v>
+      </c>
+      <c r="J55">
+        <v>-0.03048252787146944</v>
+      </c>
+      <c r="K55">
+        <v>0.004006913619403798</v>
+      </c>
+      <c r="L55">
+        <v>0.006020773768047228</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12">
       <c r="A56" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B56">
-        <v>0.1627066922905236</v>
+        <v>0.1561084809583353</v>
       </c>
       <c r="C56">
-        <v>-0.001537988245183044</v>
+        <v>0.05775833193869817</v>
       </c>
       <c r="D56">
-        <v>-0.01749657421269249</v>
+        <v>-0.0471774529627149</v>
       </c>
       <c r="E56">
-        <v>-0.1106152496726843</v>
+        <v>0.01743469095252884</v>
       </c>
       <c r="F56">
-        <v>0.2137755073382458</v>
+        <v>-0.03634460689365527</v>
       </c>
       <c r="G56">
-        <v>0.05639257742593718</v>
+        <v>-0.1400715494728762</v>
       </c>
       <c r="H56">
-        <v>-0.07493939789875216</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>0.1639599309450253</v>
+      </c>
+      <c r="I56">
+        <v>-0.1602405437321148</v>
+      </c>
+      <c r="J56">
+        <v>-0.04955302673767904</v>
+      </c>
+      <c r="K56">
+        <v>-0.03172157528059054</v>
+      </c>
+      <c r="L56">
+        <v>-0.0260728281517317</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12">
       <c r="A57" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -2185,1154 +2869,1694 @@
       <c r="H57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:8">
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12">
       <c r="A58" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B58">
-        <v>0.02859973880472328</v>
+        <v>0.04835366266325341</v>
       </c>
       <c r="C58">
-        <v>-0.0368900875757812</v>
+        <v>0.03788194893013202</v>
       </c>
       <c r="D58">
-        <v>0.02923550971121885</v>
+        <v>0.009285770584523156</v>
       </c>
       <c r="E58">
-        <v>0.4351765037984279</v>
+        <v>-0.08418416270810913</v>
       </c>
       <c r="F58">
-        <v>-0.3420454335789696</v>
+        <v>0.02030286911748558</v>
       </c>
       <c r="G58">
-        <v>0.1460256383573821</v>
+        <v>-0.02712530682179242</v>
       </c>
       <c r="H58">
-        <v>-0.4683981582093803</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>-0.1491374422095816</v>
+      </c>
+      <c r="I58">
+        <v>0.1136043273850813</v>
+      </c>
+      <c r="J58">
+        <v>0.1384438641323522</v>
+      </c>
+      <c r="K58">
+        <v>0.1508268015996542</v>
+      </c>
+      <c r="L58">
+        <v>0.3427769047598372</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12">
       <c r="A59" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B59">
-        <v>0.1757390676401308</v>
+        <v>0.2073033250816223</v>
       </c>
       <c r="C59">
-        <v>0.4084025417729713</v>
+        <v>-0.2991718624539669</v>
       </c>
       <c r="D59">
-        <v>-0.08560012202026919</v>
+        <v>-0.01707667230220788</v>
       </c>
       <c r="E59">
-        <v>-0.03003250717355968</v>
+        <v>0.04541850787005332</v>
       </c>
       <c r="F59">
-        <v>0.02846353222655279</v>
+        <v>0.03362049903887559</v>
       </c>
       <c r="G59">
-        <v>-0.06423270854376685</v>
+        <v>0.03663933925057115</v>
       </c>
       <c r="H59">
-        <v>0.03362827444123557</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>0.1042904169650349</v>
+      </c>
+      <c r="I59">
+        <v>-0.0458635685120433</v>
+      </c>
+      <c r="J59">
+        <v>0.06041581900455695</v>
+      </c>
+      <c r="K59">
+        <v>-0.06036964772456881</v>
+      </c>
+      <c r="L59">
+        <v>-0.09364983913226192</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12">
       <c r="A60" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B60">
-        <v>0.2636908449235934</v>
+        <v>0.2386941141749184</v>
       </c>
       <c r="C60">
-        <v>-0.05554509706172185</v>
+        <v>0.09914282514241103</v>
       </c>
       <c r="D60">
-        <v>-0.07756126722940365</v>
+        <v>-0.1069351207386725</v>
       </c>
       <c r="E60">
-        <v>-0.01110706285537526</v>
+        <v>0.04101331286067927</v>
       </c>
       <c r="F60">
-        <v>-0.05635150501034838</v>
+        <v>-0.143880642501438</v>
       </c>
       <c r="G60">
-        <v>0.07214236533058874</v>
+        <v>0.01604327594971987</v>
       </c>
       <c r="H60">
-        <v>0.1692478397377309</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>-0.04943473683564913</v>
+      </c>
+      <c r="I60">
+        <v>0.05225214327709647</v>
+      </c>
+      <c r="J60">
+        <v>-0.08581412827934043</v>
+      </c>
+      <c r="K60">
+        <v>-0.2488985135273231</v>
+      </c>
+      <c r="L60">
+        <v>0.07736064971882531</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12">
       <c r="A61" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B61">
-        <v>0.09129371209170258</v>
+        <v>0.1012843373461042</v>
       </c>
       <c r="C61">
-        <v>-0.0331655557581034</v>
+        <v>0.05006269099126565</v>
       </c>
       <c r="D61">
-        <v>-0.001868871992806313</v>
+        <v>-0.02282064200686996</v>
       </c>
       <c r="E61">
-        <v>-0.001607280619308778</v>
+        <v>0.04875799426703176</v>
       </c>
       <c r="F61">
-        <v>0.01314964564946722</v>
+        <v>0.1351290564402843</v>
       </c>
       <c r="G61">
-        <v>-0.04493372333009368</v>
+        <v>-0.08524850504161743</v>
       </c>
       <c r="H61">
-        <v>0.002984707190124078</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>-0.01946871779720742</v>
+      </c>
+      <c r="I61">
+        <v>-0.01694057436326428</v>
+      </c>
+      <c r="J61">
+        <v>0.1138182665159155</v>
+      </c>
+      <c r="K61">
+        <v>0.02651744932393701</v>
+      </c>
+      <c r="L61">
+        <v>0.04290199809791871</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12">
       <c r="A62" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B62">
-        <v>0.1476303613463138</v>
+        <v>0.1478845556278829</v>
       </c>
       <c r="C62">
-        <v>-0.0245540189443633</v>
+        <v>0.05715667371277693</v>
       </c>
       <c r="D62">
-        <v>0.02065795854776228</v>
+        <v>-0.01943189203523376</v>
       </c>
       <c r="E62">
-        <v>-0.1717731655367996</v>
+        <v>0.02262382214407627</v>
       </c>
       <c r="F62">
-        <v>0.2080530822811486</v>
+        <v>-0.05128034784826232</v>
       </c>
       <c r="G62">
-        <v>-0.004141892908653524</v>
+        <v>-0.1132679460125494</v>
       </c>
       <c r="H62">
-        <v>-0.09306763666993076</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>0.1449800400916184</v>
+      </c>
+      <c r="I62">
+        <v>-0.1831329404648422</v>
+      </c>
+      <c r="J62">
+        <v>-0.1078033911538099</v>
+      </c>
+      <c r="K62">
+        <v>-0.003231418234722298</v>
+      </c>
+      <c r="L62">
+        <v>-0.02620320358790391</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12">
       <c r="A63" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B63">
-        <v>0.04168532890953591</v>
+        <v>0.04426956760323379</v>
       </c>
       <c r="C63">
-        <v>-0.02389019705509235</v>
+        <v>0.02423131332337626</v>
       </c>
       <c r="D63">
-        <v>0.006678562492687242</v>
+        <v>0.01580692395260967</v>
       </c>
       <c r="E63">
-        <v>0.003539065490364382</v>
+        <v>0.01022288172524528</v>
       </c>
       <c r="F63">
-        <v>0.01683761822871864</v>
+        <v>0.06677729130035187</v>
       </c>
       <c r="G63">
-        <v>-0.007482098055512787</v>
+        <v>-0.006804445419173336</v>
       </c>
       <c r="H63">
-        <v>-0.07382254007183466</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>-0.008078883092925071</v>
+      </c>
+      <c r="I63">
+        <v>0.009186265601938699</v>
+      </c>
+      <c r="J63">
+        <v>-0.001150204499298957</v>
+      </c>
+      <c r="K63">
+        <v>0.03830275881183597</v>
+      </c>
+      <c r="L63">
+        <v>0.04357282236494103</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12">
       <c r="A64" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B64">
-        <v>0.1065344943480228</v>
+        <v>0.09792709745508957</v>
       </c>
       <c r="C64">
-        <v>-0.0209144925567744</v>
+        <v>0.04284323645320384</v>
       </c>
       <c r="D64">
-        <v>-0.04266905986822764</v>
+        <v>-0.05039232342397023</v>
       </c>
       <c r="E64">
-        <v>0.04561424428312708</v>
+        <v>-0.01675522323974077</v>
       </c>
       <c r="F64">
-        <v>-0.004246061649829085</v>
+        <v>0.06607829770763694</v>
       </c>
       <c r="G64">
-        <v>-0.07069058716178728</v>
+        <v>-0.03400180553888044</v>
       </c>
       <c r="H64">
-        <v>0.02874057982452982</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>-0.06161675638580481</v>
+      </c>
+      <c r="I64">
+        <v>0.07511570537882614</v>
+      </c>
+      <c r="J64">
+        <v>0.02116866674522501</v>
+      </c>
+      <c r="K64">
+        <v>-0.01312619086088083</v>
+      </c>
+      <c r="L64">
+        <v>0.0001571138072360072</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12">
       <c r="A65" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B65">
-        <v>0.1219722884601757</v>
+        <v>0.1246084142532179</v>
       </c>
       <c r="C65">
-        <v>-0.03605175093517698</v>
+        <v>0.04882795300789764</v>
       </c>
       <c r="D65">
-        <v>-0.02905780432825762</v>
+        <v>0.01516468934781027</v>
       </c>
       <c r="E65">
-        <v>0.1026253085582774</v>
+        <v>0.01565585256759514</v>
       </c>
       <c r="F65">
-        <v>-0.1650037700849419</v>
+        <v>-0.03316889704163802</v>
       </c>
       <c r="G65">
-        <v>0.225368965646277</v>
+        <v>0.05268960281251232</v>
       </c>
       <c r="H65">
-        <v>-0.366428627612133</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>0.03374458274257205</v>
+      </c>
+      <c r="I65">
+        <v>0.3296683419126932</v>
+      </c>
+      <c r="J65">
+        <v>-0.5098962743203275</v>
+      </c>
+      <c r="K65">
+        <v>-0.1374111555575368</v>
+      </c>
+      <c r="L65">
+        <v>0.3509024997737798</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12">
       <c r="A66" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B66">
-        <v>0.1622403535616169</v>
+        <v>0.1388911229596262</v>
       </c>
       <c r="C66">
-        <v>-0.08030121662224581</v>
+        <v>0.1115174448579161</v>
       </c>
       <c r="D66">
-        <v>0.02009609616296556</v>
+        <v>-0.0091385568795738</v>
       </c>
       <c r="E66">
-        <v>-0.01833030051458082</v>
+        <v>0.1080562422875919</v>
       </c>
       <c r="F66">
-        <v>0.01701254054018749</v>
+        <v>0.1560323838702433</v>
       </c>
       <c r="G66">
-        <v>-0.2539910793430569</v>
+        <v>-0.1347748105253034</v>
       </c>
       <c r="H66">
-        <v>-0.01319946250616265</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>-0.1105514407531448</v>
+      </c>
+      <c r="I66">
+        <v>-0.03704001333683501</v>
+      </c>
+      <c r="J66">
+        <v>0.2069020454992774</v>
+      </c>
+      <c r="K66">
+        <v>-0.1072502915154166</v>
+      </c>
+      <c r="L66">
+        <v>0.0299778866370563</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12">
       <c r="A67" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B67">
-        <v>0.09700479339003656</v>
+        <v>0.07017147315366412</v>
       </c>
       <c r="C67">
-        <v>-0.04684348597657305</v>
+        <v>0.04415142403550357</v>
       </c>
       <c r="D67">
-        <v>-0.01627742713443322</v>
+        <v>-0.007564552580751083</v>
       </c>
       <c r="E67">
-        <v>0.003354314827898977</v>
+        <v>-0.01953735582327224</v>
       </c>
       <c r="F67">
-        <v>0.01511397754024976</v>
+        <v>-0.03710056245510044</v>
       </c>
       <c r="G67">
-        <v>-0.03741931701705723</v>
+        <v>-0.02135406486184361</v>
       </c>
       <c r="H67">
-        <v>0.05863279690046668</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>0.01134806707434683</v>
+      </c>
+      <c r="I67">
+        <v>0.0314067369295719</v>
+      </c>
+      <c r="J67">
+        <v>0.05105974942828612</v>
+      </c>
+      <c r="K67">
+        <v>-0.02168729932233533</v>
+      </c>
+      <c r="L67">
+        <v>-0.1145526129750219</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12">
       <c r="A68" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B68">
-        <v>0.06099137498277012</v>
+        <v>0.1095577817444266</v>
       </c>
       <c r="C68">
-        <v>0.2949547256684827</v>
+        <v>-0.2764530256938263</v>
       </c>
       <c r="D68">
-        <v>-0.0316921535641379</v>
+        <v>0.02402993041302455</v>
       </c>
       <c r="E68">
-        <v>0.008446149924053774</v>
+        <v>0.01314005664165563</v>
       </c>
       <c r="F68">
-        <v>0.01734405736674837</v>
+        <v>0.03978824854052605</v>
       </c>
       <c r="G68">
-        <v>0.03668272722480146</v>
+        <v>-0.01429686465927172</v>
       </c>
       <c r="H68">
-        <v>-0.04253377257097754</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>0.02160913513693037</v>
+      </c>
+      <c r="I68">
+        <v>0.01743910281449468</v>
+      </c>
+      <c r="J68">
+        <v>-0.03327183668102884</v>
+      </c>
+      <c r="K68">
+        <v>0.007274155411004648</v>
+      </c>
+      <c r="L68">
+        <v>0.05014009053564973</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12">
       <c r="A69" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B69">
-        <v>0.04367688151020133</v>
+        <v>0.04132504030863592</v>
       </c>
       <c r="C69">
-        <v>-0.01847854725904402</v>
+        <v>0.006454127938409582</v>
       </c>
       <c r="D69">
-        <v>-0.004966306648880752</v>
+        <v>-0.01072858452737846</v>
       </c>
       <c r="E69">
-        <v>0.008427163015179087</v>
+        <v>-0.004506860466428449</v>
       </c>
       <c r="F69">
-        <v>0.02050505993868211</v>
+        <v>0.01423852969619167</v>
       </c>
       <c r="G69">
-        <v>-0.03048530174378478</v>
+        <v>-0.03770182288502199</v>
       </c>
       <c r="H69">
-        <v>-0.02208457822333956</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>0.02165602766216151</v>
+      </c>
+      <c r="I69">
+        <v>0.01457663444579984</v>
+      </c>
+      <c r="J69">
+        <v>-0.0004087173195110697</v>
+      </c>
+      <c r="K69">
+        <v>0.0222395616537855</v>
+      </c>
+      <c r="L69">
+        <v>-0.002997547737343439</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12">
       <c r="A70" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B70">
-        <v>0.07479291801914179</v>
+        <v>0.04961245454179731</v>
       </c>
       <c r="C70">
-        <v>-0.00965598321163184</v>
+        <v>0.01449103122518141</v>
       </c>
       <c r="D70">
-        <v>-0.03820616862998905</v>
+        <v>-0.03305272619449244</v>
       </c>
       <c r="E70">
-        <v>0.009344496712956835</v>
+        <v>0.0248778533340472</v>
       </c>
       <c r="F70">
-        <v>-0.08796729039741721</v>
+        <v>0.01064868635957372</v>
       </c>
       <c r="G70">
-        <v>0.04475582009203571</v>
+        <v>0.01311784576990191</v>
       </c>
       <c r="H70">
-        <v>0.05943722444958642</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>-0.01621131029041196</v>
+      </c>
+      <c r="I70">
+        <v>0.1260531539851764</v>
+      </c>
+      <c r="J70">
+        <v>-0.09273337204575387</v>
+      </c>
+      <c r="K70">
+        <v>0.2876889127766451</v>
+      </c>
+      <c r="L70">
+        <v>-0.1579917234239197</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12">
       <c r="A71" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B71">
-        <v>0.0697114329898499</v>
+        <v>0.1249323297508809</v>
       </c>
       <c r="C71">
-        <v>0.2881805573547905</v>
+        <v>-0.2868538675329028</v>
       </c>
       <c r="D71">
-        <v>-0.06078762070005167</v>
+        <v>-0.006903260236962671</v>
       </c>
       <c r="E71">
-        <v>0.004106812427544205</v>
+        <v>0.00184023603012267</v>
       </c>
       <c r="F71">
-        <v>-0.006474288838449075</v>
+        <v>0.04722701957151601</v>
       </c>
       <c r="G71">
-        <v>0.01352793284519953</v>
+        <v>-0.04061119092667895</v>
       </c>
       <c r="H71">
-        <v>-0.01354851346389169</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>-0.007565870328767653</v>
+      </c>
+      <c r="I71">
+        <v>0.02004761219150959</v>
+      </c>
+      <c r="J71">
+        <v>0.002708761695537484</v>
+      </c>
+      <c r="K71">
+        <v>-0.01107510815178536</v>
+      </c>
+      <c r="L71">
+        <v>0.03222838275159495</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12">
       <c r="A72" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B72">
-        <v>0.1617067152846371</v>
+        <v>0.1491350910866788</v>
       </c>
       <c r="C72">
-        <v>0.0154180461953789</v>
+        <v>0.02489992046210809</v>
       </c>
       <c r="D72">
-        <v>0.2334705243185954</v>
+        <v>0.09268304244633964</v>
       </c>
       <c r="E72">
-        <v>-0.04821036501668839</v>
+        <v>0.02834336605660902</v>
       </c>
       <c r="F72">
-        <v>0.0488381242602839</v>
+        <v>-0.003088701076266172</v>
       </c>
       <c r="G72">
-        <v>-0.06447887046275505</v>
+        <v>-0.07113849361875743</v>
       </c>
       <c r="H72">
-        <v>-0.08189369246154336</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>0.04179138742434554</v>
+      </c>
+      <c r="I72">
+        <v>-0.03952773398290704</v>
+      </c>
+      <c r="J72">
+        <v>-0.1111010866227934</v>
+      </c>
+      <c r="K72">
+        <v>-0.1133212883083071</v>
+      </c>
+      <c r="L72">
+        <v>0.0005516610574427273</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12">
       <c r="A73" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B73">
-        <v>0.2914210401257751</v>
+        <v>0.2387305491907896</v>
       </c>
       <c r="C73">
-        <v>-0.1728849151375743</v>
+        <v>0.1221602231407722</v>
       </c>
       <c r="D73">
-        <v>-0.08295212395788701</v>
+        <v>-0.1609746213465987</v>
       </c>
       <c r="E73">
-        <v>-0.05430400464097865</v>
+        <v>0.1092334263106674</v>
       </c>
       <c r="F73">
-        <v>-0.3117944060837251</v>
+        <v>-0.4404295612966138</v>
       </c>
       <c r="G73">
-        <v>0.1280771032237967</v>
+        <v>0.02381007979642436</v>
       </c>
       <c r="H73">
-        <v>0.1382526885389627</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>-0.2475210272688393</v>
+      </c>
+      <c r="I73">
+        <v>0.1401483275532698</v>
+      </c>
+      <c r="J73">
+        <v>0.2738891189642509</v>
+      </c>
+      <c r="K73">
+        <v>-0.1907976605133355</v>
+      </c>
+      <c r="L73">
+        <v>0.08616426176765866</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12">
       <c r="A74" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B74">
-        <v>0.0943998070628683</v>
+        <v>0.107947001384261</v>
       </c>
       <c r="C74">
-        <v>-0.03507364075335145</v>
+        <v>0.07102321121567011</v>
       </c>
       <c r="D74">
-        <v>-0.006357964433466412</v>
+        <v>-0.00923929423162359</v>
       </c>
       <c r="E74">
-        <v>-0.04036360778772039</v>
+        <v>0.007056281253461949</v>
       </c>
       <c r="F74">
-        <v>0.08988438984369289</v>
+        <v>-0.0418478244621704</v>
       </c>
       <c r="G74">
-        <v>0.04414890146436672</v>
+        <v>-0.1226074006806801</v>
       </c>
       <c r="H74">
-        <v>-0.05756789292464132</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>0.08185324918019803</v>
+      </c>
+      <c r="I74">
+        <v>-0.07144025122317249</v>
+      </c>
+      <c r="J74">
+        <v>-0.01511939997892807</v>
+      </c>
+      <c r="K74">
+        <v>-0.004112639536948037</v>
+      </c>
+      <c r="L74">
+        <v>0.003064368151027166</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12">
       <c r="A75" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B75">
-        <v>0.09633483848132883</v>
+        <v>0.1007991512583084</v>
       </c>
       <c r="C75">
-        <v>-0.02081053571358634</v>
+        <v>0.05032936247312673</v>
       </c>
       <c r="D75">
-        <v>0.005102428766692896</v>
+        <v>-0.003939595392698075</v>
       </c>
       <c r="E75">
-        <v>-0.0486624032681324</v>
+        <v>0.005383820858181727</v>
       </c>
       <c r="F75">
-        <v>0.1124576492424066</v>
+        <v>-0.03012218619485047</v>
       </c>
       <c r="G75">
-        <v>0.047687519283813</v>
+        <v>-0.04487751020177074</v>
       </c>
       <c r="H75">
-        <v>-0.0201720739195675</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>0.1141139962253263</v>
+      </c>
+      <c r="I75">
+        <v>-0.0824977795612499</v>
+      </c>
+      <c r="J75">
+        <v>-0.03584279656063088</v>
+      </c>
+      <c r="K75">
+        <v>-0.01419590052386648</v>
+      </c>
+      <c r="L75">
+        <v>-0.01033597848937869</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12">
       <c r="A76" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B76">
-        <v>0.1340889249780547</v>
+        <v>0.06858011404575394</v>
       </c>
       <c r="C76">
-        <v>-0.04267364761682014</v>
+        <v>0.03961773141555585</v>
       </c>
       <c r="D76">
-        <v>-0.01559977886180906</v>
+        <v>-0.03178308550869061</v>
       </c>
       <c r="E76">
-        <v>-0.05295466897532222</v>
+        <v>-0.002772481437131181</v>
       </c>
       <c r="F76">
-        <v>0.2197572193855729</v>
+        <v>-0.06373552479747113</v>
       </c>
       <c r="G76">
-        <v>0.07962665173454714</v>
+        <v>-0.05676335458278119</v>
       </c>
       <c r="H76">
-        <v>-0.03446438095005624</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>0.149376448361102</v>
+      </c>
+      <c r="I76">
+        <v>-0.09614152612876649</v>
+      </c>
+      <c r="J76">
+        <v>0.0214125648827918</v>
+      </c>
+      <c r="K76">
+        <v>0.03846773192652179</v>
+      </c>
+      <c r="L76">
+        <v>0.003744238593026546</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12">
       <c r="A77" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B77">
-        <v>0.07907897021777513</v>
+        <v>0.07279742809574982</v>
       </c>
       <c r="C77">
-        <v>-0.02266283052254829</v>
+        <v>0.03406788894670981</v>
       </c>
       <c r="D77">
-        <v>-0.0238499007266907</v>
+        <v>-0.03477572458153904</v>
       </c>
       <c r="E77">
-        <v>0.1336017054762507</v>
+        <v>0.00883137129043389</v>
       </c>
       <c r="F77">
-        <v>-0.1622277783177972</v>
+        <v>0.270495660035267</v>
       </c>
       <c r="G77">
-        <v>-0.6150226029947208</v>
+        <v>0.03895498702385702</v>
       </c>
       <c r="H77">
-        <v>0.2485726110877621</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>-0.05089515097291813</v>
+      </c>
+      <c r="I77">
+        <v>0.2385234721295504</v>
+      </c>
+      <c r="J77">
+        <v>-0.03001068104178594</v>
+      </c>
+      <c r="K77">
+        <v>-0.4440788667219328</v>
+      </c>
+      <c r="L77">
+        <v>-0.5446275656082914</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12">
       <c r="A78" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B78">
-        <v>0.1915627802844265</v>
+        <v>0.1583622805247974</v>
       </c>
       <c r="C78">
-        <v>-0.07070432828708571</v>
+        <v>0.1135488318912459</v>
       </c>
       <c r="D78">
-        <v>-0.03316431916230878</v>
+        <v>0.04488902284769718</v>
       </c>
       <c r="E78">
-        <v>0.2109932601025322</v>
+        <v>-0.1800262316230045</v>
       </c>
       <c r="F78">
-        <v>0.06219118885387596</v>
+        <v>0.1801723328842621</v>
       </c>
       <c r="G78">
-        <v>-0.08161808472309082</v>
+        <v>0.722250215996032</v>
       </c>
       <c r="H78">
-        <v>0.05882068913594829</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>0.4329425526065113</v>
+      </c>
+      <c r="I78">
+        <v>-0.06285136345490308</v>
+      </c>
+      <c r="J78">
+        <v>0.2262560618975453</v>
+      </c>
+      <c r="K78">
+        <v>-0.1408544691936319</v>
+      </c>
+      <c r="L78">
+        <v>0.1304413394237529</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12">
       <c r="A79" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B79">
-        <v>0.134939067222375</v>
+        <v>0.1357240429180437</v>
       </c>
       <c r="C79">
-        <v>-0.02650968193560359</v>
+        <v>0.0597331475983222</v>
       </c>
       <c r="D79">
-        <v>-0.0006725037616245789</v>
+        <v>-0.02289762744610052</v>
       </c>
       <c r="E79">
-        <v>-0.07875786988885261</v>
+        <v>-0.003941384633695442</v>
       </c>
       <c r="F79">
-        <v>0.1581678470445441</v>
+        <v>-0.003997038925444303</v>
       </c>
       <c r="G79">
-        <v>0.01223790434993476</v>
+        <v>-0.1157158264139614</v>
       </c>
       <c r="H79">
-        <v>-0.0719117713201055</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>0.112394977533982</v>
+      </c>
+      <c r="I79">
+        <v>-0.1234647428688456</v>
+      </c>
+      <c r="J79">
+        <v>-0.06345946578311276</v>
+      </c>
+      <c r="K79">
+        <v>-0.01887789070777559</v>
+      </c>
+      <c r="L79">
+        <v>-0.004932807005025698</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12">
       <c r="A80" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B80">
-        <v>0.04173875573551781</v>
+        <v>0.06008396382906903</v>
       </c>
       <c r="C80">
-        <v>-0.02077308157647659</v>
+        <v>0.0314598024614081</v>
       </c>
       <c r="D80">
-        <v>-0.01477249583747737</v>
+        <v>-0.02554083268634251</v>
       </c>
       <c r="E80">
-        <v>-0.02754078822488224</v>
+        <v>0.06559809652763261</v>
       </c>
       <c r="F80">
-        <v>-0.02566434469558007</v>
+        <v>0.0324006974321101</v>
       </c>
       <c r="G80">
-        <v>-0.003115974838651503</v>
+        <v>-0.005143311917915853</v>
       </c>
       <c r="H80">
-        <v>-0.06303392972474123</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>0.05781679778462286</v>
+      </c>
+      <c r="I80">
+        <v>0.09843465579893138</v>
+      </c>
+      <c r="J80">
+        <v>-0.02710661601439309</v>
+      </c>
+      <c r="K80">
+        <v>0.1669158042424327</v>
+      </c>
+      <c r="L80">
+        <v>0.08094065693204995</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12">
       <c r="A81" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B81">
-        <v>0.1052201890903523</v>
+        <v>0.1261465323032185</v>
       </c>
       <c r="C81">
-        <v>-0.02513765420421165</v>
+        <v>0.06149300479338455</v>
       </c>
       <c r="D81">
-        <v>-0.01360009025214905</v>
+        <v>-0.02652703089193329</v>
       </c>
       <c r="E81">
-        <v>-0.08046255382668421</v>
+        <v>-0.004776631032139682</v>
       </c>
       <c r="F81">
-        <v>0.1143814999853601</v>
+        <v>0.007019447414654364</v>
       </c>
       <c r="G81">
-        <v>0.02105027001505501</v>
+        <v>-0.07207404921913174</v>
       </c>
       <c r="H81">
-        <v>0.02687771549590168</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>0.07117339010455143</v>
+      </c>
+      <c r="I81">
+        <v>-0.1105869075296542</v>
+      </c>
+      <c r="J81">
+        <v>-0.03403645047855654</v>
+      </c>
+      <c r="K81">
+        <v>-0.001305370292330648</v>
+      </c>
+      <c r="L81">
+        <v>-0.01526014832300202</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12">
       <c r="A82" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B82">
-        <v>0.1118800417390187</v>
+        <v>0.1333717743179687</v>
       </c>
       <c r="C82">
-        <v>-0.03095663990902599</v>
+        <v>0.04482829527989235</v>
       </c>
       <c r="D82">
-        <v>-0.06659625539623525</v>
+        <v>-0.04467729282319291</v>
       </c>
       <c r="E82">
-        <v>-0.1083319591087828</v>
+        <v>0.01186726791359088</v>
       </c>
       <c r="F82">
-        <v>0.2163749273827956</v>
+        <v>-0.03490519164919316</v>
       </c>
       <c r="G82">
-        <v>0.00614866638720277</v>
+        <v>-0.1590198806008138</v>
       </c>
       <c r="H82">
-        <v>-0.07457250883673439</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>0.1426377742619435</v>
+      </c>
+      <c r="I82">
+        <v>-0.1885485155818132</v>
+      </c>
+      <c r="J82">
+        <v>-0.02594843189070383</v>
+      </c>
+      <c r="K82">
+        <v>0.07487294377997168</v>
+      </c>
+      <c r="L82">
+        <v>-0.06527828791933935</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12">
       <c r="A83" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B83">
-        <v>0.09535778289169987</v>
+        <v>0.09393799332014596</v>
       </c>
       <c r="C83">
-        <v>-0.06735724012148957</v>
+        <v>0.1140207906312391</v>
       </c>
       <c r="D83">
-        <v>-0.05562820837622715</v>
+        <v>-0.02327839876637098</v>
       </c>
       <c r="E83">
-        <v>0.004829322875923156</v>
+        <v>0.01112810000365541</v>
       </c>
       <c r="F83">
-        <v>-0.07798958842279234</v>
+        <v>0.07931642071527488</v>
       </c>
       <c r="G83">
-        <v>-0.0322239659015445</v>
+        <v>-0.02693946735773628</v>
       </c>
       <c r="H83">
-        <v>-0.03594091261332338</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>0.06310849063451371</v>
+      </c>
+      <c r="I83">
+        <v>0.1536280014352926</v>
+      </c>
+      <c r="J83">
+        <v>0.02380341551376539</v>
+      </c>
+      <c r="K83">
+        <v>0.1584801352008992</v>
+      </c>
+      <c r="L83">
+        <v>-0.1057038192720215</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12">
       <c r="A84" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B84">
-        <v>0.05950622498153935</v>
+        <v>0.052256167952748</v>
       </c>
       <c r="C84">
-        <v>-0.04651741614900989</v>
+        <v>-0.03498531567301843</v>
       </c>
       <c r="D84">
-        <v>0.04729969966683776</v>
+        <v>-0.00556675028563581</v>
       </c>
       <c r="E84">
-        <v>0.005644936882946662</v>
+        <v>0.01603961465743047</v>
       </c>
       <c r="F84">
-        <v>0.05514804001573208</v>
+        <v>0.00356856475448328</v>
       </c>
       <c r="G84">
-        <v>0.1303428000241947</v>
+        <v>0.1761749742824738</v>
       </c>
       <c r="H84">
-        <v>-0.02523393135354014</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>-0.2193084613152352</v>
+      </c>
+      <c r="I84">
+        <v>-0.2056342211579161</v>
+      </c>
+      <c r="J84">
+        <v>0.1451138461546463</v>
+      </c>
+      <c r="K84">
+        <v>0.1533376664878675</v>
+      </c>
+      <c r="L84">
+        <v>0.1258340875446324</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12">
       <c r="A85" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B85">
-        <v>0.0993540269014411</v>
+        <v>0.1142259390719657</v>
       </c>
       <c r="C85">
-        <v>-0.03384227904910204</v>
+        <v>0.0458288286685196</v>
       </c>
       <c r="D85">
-        <v>-0.02668541204799336</v>
+        <v>-0.04767212837918754</v>
       </c>
       <c r="E85">
-        <v>-0.07061787490904432</v>
+        <v>-0.0001556889743610757</v>
       </c>
       <c r="F85">
-        <v>0.1789313479127931</v>
+        <v>0.001918326314202371</v>
       </c>
       <c r="G85">
-        <v>-0.0118224533442376</v>
+        <v>-0.103509949255578</v>
       </c>
       <c r="H85">
-        <v>-0.1019861011987671</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>0.1133935416017465</v>
+      </c>
+      <c r="I85">
+        <v>-0.1250418485573986</v>
+      </c>
+      <c r="J85">
+        <v>-0.06114033511095095</v>
+      </c>
+      <c r="K85">
+        <v>-0.04322593666808631</v>
+      </c>
+      <c r="L85">
+        <v>-0.01010261771077386</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12">
       <c r="A86" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B86">
-        <v>0.05996601319287236</v>
+        <v>0.08046168094563312</v>
       </c>
       <c r="C86">
-        <v>-0.03898586579690019</v>
+        <v>0.02655691944162442</v>
       </c>
       <c r="D86">
-        <v>-0.0402489314655337</v>
+        <v>-0.1063379162681924</v>
       </c>
       <c r="E86">
-        <v>0.0448108712907773</v>
+        <v>-0.03852894313901346</v>
       </c>
       <c r="F86">
-        <v>-0.02449275789466316</v>
+        <v>0.04614292625083399</v>
       </c>
       <c r="G86">
-        <v>-0.04223274404247938</v>
+        <v>0.3046696683973884</v>
       </c>
       <c r="H86">
-        <v>-0.0922037587664199</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>-0.4712304564761159</v>
+      </c>
+      <c r="I86">
+        <v>-0.5255741822506284</v>
+      </c>
+      <c r="J86">
+        <v>-0.3932850152078735</v>
+      </c>
+      <c r="K86">
+        <v>0.01729138837537427</v>
+      </c>
+      <c r="L86">
+        <v>-0.05327673958333361</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12">
       <c r="A87" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B87">
-        <v>0.09504296687754353</v>
+        <v>0.1159502806869959</v>
       </c>
       <c r="C87">
-        <v>-0.04278513729343972</v>
+        <v>0.09883290275452621</v>
       </c>
       <c r="D87">
-        <v>-0.008012232202369513</v>
+        <v>-0.03304447240224793</v>
       </c>
       <c r="E87">
-        <v>0.06729670456304844</v>
+        <v>-0.02873674287035584</v>
       </c>
       <c r="F87">
-        <v>0.00321931307495541</v>
+        <v>0.1258201172323702</v>
       </c>
       <c r="G87">
-        <v>-0.1327463470721449</v>
+        <v>0.0232946529555025</v>
       </c>
       <c r="H87">
-        <v>-0.03587490837440033</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>-0.07819889088567875</v>
+      </c>
+      <c r="I87">
+        <v>0.08527777529652895</v>
+      </c>
+      <c r="J87">
+        <v>-0.1165792565894962</v>
+      </c>
+      <c r="K87">
+        <v>-0.02276256416016876</v>
+      </c>
+      <c r="L87">
+        <v>-0.2885102689830633</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12">
       <c r="A88" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B88">
-        <v>0.06218023590631296</v>
+        <v>0.05537941869857246</v>
       </c>
       <c r="C88">
-        <v>-0.03354137941792546</v>
+        <v>0.04769255390897177</v>
       </c>
       <c r="D88">
-        <v>-0.0201119252221037</v>
+        <v>-0.02907886166679952</v>
       </c>
       <c r="E88">
-        <v>0.00814377422187605</v>
+        <v>0.02753453279822424</v>
       </c>
       <c r="F88">
-        <v>-0.008149317432277568</v>
+        <v>0.03165260342703975</v>
       </c>
       <c r="G88">
-        <v>-0.04342258999231154</v>
+        <v>-0.04415811464713939</v>
       </c>
       <c r="H88">
-        <v>-0.009618337274186036</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>-0.009843162306071721</v>
+      </c>
+      <c r="I88">
+        <v>0.02672256992869742</v>
+      </c>
+      <c r="J88">
+        <v>0.03606086352921316</v>
+      </c>
+      <c r="K88">
+        <v>0.04190568899889475</v>
+      </c>
+      <c r="L88">
+        <v>0.05674333406764744</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12">
       <c r="A89" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B89">
-        <v>0.1237922506811765</v>
+        <v>0.1833898045532224</v>
       </c>
       <c r="C89">
-        <v>0.3517754234455424</v>
+        <v>-0.3719704290235226</v>
       </c>
       <c r="D89">
-        <v>-0.1021365336344921</v>
+        <v>-0.02269598447799388</v>
       </c>
       <c r="E89">
-        <v>0.08221482656400639</v>
+        <v>-0.05068574420645357</v>
       </c>
       <c r="F89">
-        <v>-0.04856786342318954</v>
+        <v>0.02433686947386053</v>
       </c>
       <c r="G89">
-        <v>-0.02082561934395978</v>
+        <v>0.03596308714902812</v>
       </c>
       <c r="H89">
-        <v>-0.02540364774077597</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>-0.01741136059338143</v>
+      </c>
+      <c r="I89">
+        <v>0.06870705505847467</v>
+      </c>
+      <c r="J89">
+        <v>0.04054671783721182</v>
+      </c>
+      <c r="K89">
+        <v>0.0617763954895738</v>
+      </c>
+      <c r="L89">
+        <v>-0.01283715977118759</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12">
       <c r="A90" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B90">
-        <v>0.09340728223145203</v>
+        <v>0.1413889708546687</v>
       </c>
       <c r="C90">
-        <v>0.2813335507394236</v>
+        <v>-0.2744198541063647</v>
       </c>
       <c r="D90">
-        <v>-0.04206969220392536</v>
+        <v>-0.006266822649508068</v>
       </c>
       <c r="E90">
-        <v>0.06144826444835553</v>
+        <v>-0.001705071234444629</v>
       </c>
       <c r="F90">
-        <v>-0.04198352018859504</v>
+        <v>0.04143996212237811</v>
       </c>
       <c r="G90">
-        <v>-0.08664133099893512</v>
+        <v>-0.01914773812538784</v>
       </c>
       <c r="H90">
-        <v>0.009956176860754926</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>-0.06392744781339089</v>
+      </c>
+      <c r="I90">
+        <v>0.02264974389097714</v>
+      </c>
+      <c r="J90">
+        <v>0.03467559807218942</v>
+      </c>
+      <c r="K90">
+        <v>-0.03035197231815567</v>
+      </c>
+      <c r="L90">
+        <v>0.01867118004987415</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12">
       <c r="A91" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B91">
-        <v>0.08319369568533318</v>
+        <v>0.08096380456801021</v>
       </c>
       <c r="C91">
-        <v>-0.02493839261498776</v>
+        <v>0.04352472112228555</v>
       </c>
       <c r="D91">
-        <v>-0.008094854896902832</v>
+        <v>-0.02934968269630663</v>
       </c>
       <c r="E91">
-        <v>-0.02654158551685522</v>
+        <v>-0.005625944046658936</v>
       </c>
       <c r="F91">
-        <v>0.07058205965131317</v>
+        <v>-0.02376221588710929</v>
       </c>
       <c r="G91">
-        <v>0.06255217087895242</v>
+        <v>-0.06102590095869672</v>
       </c>
       <c r="H91">
-        <v>0.0009668106464959599</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>0.06658358161236198</v>
+      </c>
+      <c r="I91">
+        <v>-0.07524765930229856</v>
+      </c>
+      <c r="J91">
+        <v>-0.01348629139680525</v>
+      </c>
+      <c r="K91">
+        <v>0.005844397163347787</v>
+      </c>
+      <c r="L91">
+        <v>0.00327566410518849</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12">
       <c r="A92" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B92">
-        <v>0.1009695964168813</v>
+        <v>0.1573178492037105</v>
       </c>
       <c r="C92">
-        <v>0.3281003356248621</v>
+        <v>-0.3265544346220417</v>
       </c>
       <c r="D92">
-        <v>-0.07900411441874045</v>
+        <v>-0.002556846601914047</v>
       </c>
       <c r="E92">
-        <v>0.04526441411824325</v>
+        <v>-0.04298286854007338</v>
       </c>
       <c r="F92">
-        <v>0.0009146836041605678</v>
+        <v>0.05068535907882318</v>
       </c>
       <c r="G92">
-        <v>0.09876016894193497</v>
+        <v>-0.0146166336596122</v>
       </c>
       <c r="H92">
-        <v>-0.02188875141443396</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>0.04373781389977721</v>
+      </c>
+      <c r="I92">
+        <v>-0.006294740406411661</v>
+      </c>
+      <c r="J92">
+        <v>0.04482819760590562</v>
+      </c>
+      <c r="K92">
+        <v>0.03896782611251047</v>
+      </c>
+      <c r="L92">
+        <v>0.04790099201230737</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12">
       <c r="A93" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B93">
-        <v>0.1083476158572489</v>
+        <v>0.147458250501684</v>
       </c>
       <c r="C93">
-        <v>0.28072971273661</v>
+        <v>-0.3061180609227289</v>
       </c>
       <c r="D93">
-        <v>-0.04905570675692678</v>
+        <v>-0.01856486672648467</v>
       </c>
       <c r="E93">
-        <v>0.02380657689048685</v>
+        <v>0.02499156589571614</v>
       </c>
       <c r="F93">
-        <v>-0.01361802300198283</v>
+        <v>0.01529481196261512</v>
       </c>
       <c r="G93">
-        <v>-0.00395169299804503</v>
+        <v>-0.01678513755941337</v>
       </c>
       <c r="H93">
-        <v>0.01139764917570178</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>-0.05214630410857801</v>
+      </c>
+      <c r="I93">
+        <v>-0.008349144560696043</v>
+      </c>
+      <c r="J93">
+        <v>-0.03180070659261355</v>
+      </c>
+      <c r="K93">
+        <v>0.01456488038203025</v>
+      </c>
+      <c r="L93">
+        <v>0.006764372270687509</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12">
       <c r="A94" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B94">
-        <v>0.09037890759485714</v>
+        <v>0.1195771836056166</v>
       </c>
       <c r="C94">
-        <v>-0.04662170361793304</v>
+        <v>0.06215059184461476</v>
       </c>
       <c r="D94">
-        <v>-0.003085416204144654</v>
+        <v>-0.02208267973075015</v>
       </c>
       <c r="E94">
-        <v>-0.049387476845316</v>
+        <v>-0.01234516490191727</v>
       </c>
       <c r="F94">
-        <v>0.1268151451690524</v>
+        <v>-0.03762263460105394</v>
       </c>
       <c r="G94">
-        <v>0.05508649375391413</v>
+        <v>-0.08715512959815715</v>
       </c>
       <c r="H94">
-        <v>-0.06037417730643077</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>0.08921077354120611</v>
+      </c>
+      <c r="I94">
+        <v>-0.09181887076610036</v>
+      </c>
+      <c r="J94">
+        <v>-0.003913062864743834</v>
+      </c>
+      <c r="K94">
+        <v>-0.002511391480156988</v>
+      </c>
+      <c r="L94">
+        <v>0.03962010244805885</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12">
       <c r="A95" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B95">
-        <v>0.1295604897315574</v>
+        <v>0.1202016912241582</v>
       </c>
       <c r="C95">
-        <v>-0.07178667276450602</v>
+        <v>0.06650044651104088</v>
       </c>
       <c r="D95">
-        <v>-0.06807758142090865</v>
+        <v>-0.04503086743111911</v>
       </c>
       <c r="E95">
-        <v>0.04503523253587232</v>
+        <v>-0.02146549089542545</v>
       </c>
       <c r="F95">
-        <v>-0.05245982644543527</v>
+        <v>0.06289709131293444</v>
       </c>
       <c r="G95">
-        <v>-0.06026132362543255</v>
+        <v>0.1337198568522179</v>
       </c>
       <c r="H95">
-        <v>-0.1168190816683055</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>-0.1730103177552008</v>
+      </c>
+      <c r="I95">
+        <v>0.04899128958014436</v>
+      </c>
+      <c r="J95">
+        <v>-0.1036503977156758</v>
+      </c>
+      <c r="K95">
+        <v>0.0794916503987407</v>
+      </c>
+      <c r="L95">
+        <v>0.002204469870639604</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12">
       <c r="A96" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B96">
-        <v>0</v>
+        <v>-0.004152915427283945</v>
       </c>
       <c r="C96">
-        <v>0</v>
+        <v>0.005639423742268647</v>
       </c>
       <c r="D96">
-        <v>0</v>
+        <v>-0.0009980822181462862</v>
       </c>
       <c r="E96">
-        <v>0</v>
+        <v>0.0003543966282569715</v>
       </c>
       <c r="F96">
-        <v>0</v>
+        <v>0.005568465334507254</v>
       </c>
       <c r="G96">
-        <v>0</v>
+        <v>0.01750689360354636</v>
       </c>
       <c r="H96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>0.01391677125856043</v>
+      </c>
+      <c r="I96">
+        <v>0.01094168252083026</v>
+      </c>
+      <c r="J96">
+        <v>0.002856627665615898</v>
+      </c>
+      <c r="K96">
+        <v>-0.01099767940164367</v>
+      </c>
+      <c r="L96">
+        <v>-0.00671923392762327</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12">
       <c r="A97" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B97">
-        <v>0.2185772706837195</v>
+        <v>0.189208598364928</v>
       </c>
       <c r="C97">
-        <v>0.1297749962905743</v>
+        <v>0.06023639409467194</v>
       </c>
       <c r="D97">
-        <v>0.9030182163796072</v>
+        <v>0.934329726605687</v>
       </c>
       <c r="E97">
-        <v>-0.03579683994539043</v>
+        <v>0.1509861629991091</v>
       </c>
       <c r="F97">
-        <v>-0.1041661791179154</v>
+        <v>-0.08082511377866183</v>
       </c>
       <c r="G97">
-        <v>0.004346000921129874</v>
+        <v>0.01937134661105402</v>
       </c>
       <c r="H97">
-        <v>0.03476965438926707</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>-0.09906282644016758</v>
+      </c>
+      <c r="I97">
+        <v>-0.05089648420467014</v>
+      </c>
+      <c r="J97">
+        <v>-0.007762744259002469</v>
+      </c>
+      <c r="K97">
+        <v>-0.005204664643459627</v>
+      </c>
+      <c r="L97">
+        <v>-0.05304547241510545</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12">
       <c r="A98" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B98">
-        <v>0.3090204509141145</v>
+        <v>0.2592679269640973</v>
       </c>
       <c r="C98">
-        <v>-0.09176951837814105</v>
+        <v>0.09371993354115565</v>
       </c>
       <c r="D98">
-        <v>-0.1068923782669183</v>
+        <v>-0.04493092475055084</v>
       </c>
       <c r="E98">
-        <v>-0.1926606899022786</v>
+        <v>-0.01352042856743347</v>
       </c>
       <c r="F98">
-        <v>-0.2765402400049129</v>
+        <v>-0.4002210099502632</v>
       </c>
       <c r="G98">
-        <v>0.3398500105079802</v>
+        <v>0.2039013480305525</v>
       </c>
       <c r="H98">
-        <v>0.3377546407857347</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>0.05879533230451792</v>
+      </c>
+      <c r="I98">
+        <v>0.2037003289748379</v>
+      </c>
+      <c r="J98">
+        <v>0.05184171442075369</v>
+      </c>
+      <c r="K98">
+        <v>0.4421137109589105</v>
+      </c>
+      <c r="L98">
+        <v>-0.3292041660130781</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12">
       <c r="A99" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B99">
-        <v>0.08047504085176564</v>
+        <v>0.06478683463252408</v>
       </c>
       <c r="C99">
-        <v>-0.04135070032600077</v>
+        <v>0.03634431837800123</v>
       </c>
       <c r="D99">
-        <v>-0.01923043969992548</v>
+        <v>-0.02433401713859814</v>
       </c>
       <c r="E99">
-        <v>-0.002861806430845639</v>
+        <v>-0.007805373087895019</v>
       </c>
       <c r="F99">
-        <v>0.02482349197272916</v>
+        <v>-0.01220261292887843</v>
       </c>
       <c r="G99">
-        <v>-0.03376231640086636</v>
+        <v>-0.01433503360205703</v>
       </c>
       <c r="H99">
-        <v>-0.005820922490615318</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>0.02705641031484476</v>
+      </c>
+      <c r="I99">
+        <v>0.001723081612745045</v>
+      </c>
+      <c r="J99">
+        <v>0.04804125353070528</v>
+      </c>
+      <c r="K99">
+        <v>-0.02348892618474473</v>
+      </c>
+      <c r="L99">
+        <v>-0.0009192755239739508</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12">
       <c r="A100" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B100">
-        <v>0</v>
+        <v>0.001293656386892391</v>
       </c>
       <c r="C100">
-        <v>0</v>
+        <v>-0.003174805673605079</v>
       </c>
       <c r="D100">
-        <v>0</v>
+        <v>0.06551703548484049</v>
       </c>
       <c r="E100">
-        <v>0</v>
+        <v>0.01922067721155172</v>
       </c>
       <c r="F100">
-        <v>0</v>
+        <v>0.02982987697003737</v>
       </c>
       <c r="G100">
-        <v>0</v>
+        <v>-0.008439466085078322</v>
       </c>
       <c r="H100">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>0.001508724973741449</v>
+      </c>
+      <c r="I100">
+        <v>0.05835571275315537</v>
+      </c>
+      <c r="J100">
+        <v>-0.008450763487509722</v>
+      </c>
+      <c r="K100">
+        <v>0.07279339648208996</v>
+      </c>
+      <c r="L100">
+        <v>-0.02048669662933127</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12">
       <c r="A101" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B101">
-        <v>0.05180242145205614</v>
+        <v>0.03889143951448604</v>
       </c>
       <c r="C101">
-        <v>-0.002355582331861978</v>
+        <v>0.02202312857815368</v>
       </c>
       <c r="D101">
-        <v>-0.006866196528787206</v>
+        <v>-0.02019435702908667</v>
       </c>
       <c r="E101">
-        <v>0.03853572404789162</v>
+        <v>0.001308906185611155</v>
       </c>
       <c r="F101">
-        <v>0.02840741220050306</v>
+        <v>0.06222541544860419</v>
       </c>
       <c r="G101">
-        <v>-0.002046821456140125</v>
+        <v>-0.02573853679999964</v>
       </c>
       <c r="H101">
-        <v>-0.03356603826656528</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>0.01217729346837197</v>
+      </c>
+      <c r="I101">
+        <v>0.01269439949996733</v>
+      </c>
+      <c r="J101">
+        <v>-0.0300920115538027</v>
+      </c>
+      <c r="K101">
+        <v>0.0998037700206692</v>
+      </c>
+      <c r="L101">
+        <v>0.01656781456863694</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12">
       <c r="A102" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -3355,10 +4579,22 @@
       <c r="H102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:8">
+      <c r="I102">
+        <v>0</v>
+      </c>
+      <c r="J102">
+        <v>0</v>
+      </c>
+      <c r="K102">
+        <v>0</v>
+      </c>
+      <c r="L102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12">
       <c r="A103" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -3381,10 +4617,22 @@
       <c r="H103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:8">
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+      <c r="L103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12">
       <c r="A104" s="1" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -3405,6 +4653,18 @@
         <v>0</v>
       </c>
       <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
+        <v>0</v>
+      </c>
+      <c r="L104">
         <v>0</v>
       </c>
     </row>
